--- a/timer.xlsx
+++ b/timer.xlsx
@@ -345,8 +345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1176.4100000000005</v>
+        <v>1190.7500000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -741,83 +741,89 @@
       <c r="A48" s="1">
         <v>43138</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43139</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43140</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43141</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43142</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43143</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43144</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43145</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43146</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43147</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43148</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43149</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43150</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43151</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43152</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43153</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43154</v>
       </c>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -345,8 +345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1190.7500000000005</v>
+        <v>1206.1100000000004</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -757,10 +757,16 @@
       <c r="A50" s="1">
         <v>43140</v>
       </c>
+      <c r="B50">
+        <v>10.99</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43141</v>
+      </c>
+      <c r="B51">
+        <v>4.37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1206.1100000000004</v>
+        <v>1209.2800000000004</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -766,76 +766,74 @@
         <v>43141</v>
       </c>
       <c r="B51">
-        <v>4.37</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>43142</v>
+        <v>43143</v>
+      </c>
+      <c r="B52">
+        <v>2.48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>43143</v>
+        <v>43144</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>43144</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>43145</v>
+        <v>43146</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>43146</v>
+        <v>43147</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>43147</v>
+        <v>43148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>43148</v>
+        <v>43149</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>43149</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
-        <v>43150</v>
+        <v>43151</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>43151</v>
+        <v>43152</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>43152</v>
+        <v>43153</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>43153</v>
+        <v>43154</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>43154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="1">
         <v>43155</v>
       </c>
     </row>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1209.2800000000004</v>
+        <v>1218.9400000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -780,6 +780,9 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43144</v>
+      </c>
+      <c r="B53">
+        <v>9.66</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -345,8 +345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1218.9400000000005</v>
+        <v>1238.3300000000006</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -789,15 +789,24 @@
       <c r="A54" s="1">
         <v>43145</v>
       </c>
+      <c r="B54">
+        <v>9.68</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43146</v>
       </c>
+      <c r="B55">
+        <v>6.06</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43147</v>
+      </c>
+      <c r="B56">
+        <v>3.65</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1238.3300000000006</v>
+        <v>1267.2900000000002</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -806,38 +806,56 @@
         <v>43147</v>
       </c>
       <c r="B56">
-        <v>3.65</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43148</v>
       </c>
+      <c r="B57">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43149</v>
       </c>
+      <c r="B58">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43150</v>
       </c>
+      <c r="B59">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43151</v>
       </c>
+      <c r="B60">
+        <v>3.47</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43152</v>
       </c>
+      <c r="B61">
+        <v>8.27</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43153</v>
       </c>
+      <c r="B62">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -847,6 +865,91 @@
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>43172</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -345,8 +345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1267.2900000000002</v>
+        <v>1287.0400000000004</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -861,88 +861,100 @@
       <c r="A63" s="1">
         <v>43154</v>
       </c>
+      <c r="B63">
+        <v>4.2699999999999996</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43155</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43156</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43157</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43158</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43159</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43160</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43161</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43162</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43163</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43164</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>43165</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>43166</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43167</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43168</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43169</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43170</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43171</v>
       </c>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1287.0400000000004</v>
+        <v>1294.1700000000003</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -893,10 +893,16 @@
       <c r="A67" s="1">
         <v>43158</v>
       </c>
+      <c r="B67">
+        <v>6.06</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43159</v>
+      </c>
+      <c r="B68">
+        <v>1.07</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -346,7 +346,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +366,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1294.1700000000003</v>
+        <v>1313.5200000000002</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -902,27 +902,39 @@
         <v>43159</v>
       </c>
       <c r="B68">
-        <v>1.07</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43160</v>
       </c>
+      <c r="B69">
+        <v>5.53</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43161</v>
       </c>
+      <c r="B70">
+        <v>5.07</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43162</v>
       </c>
+      <c r="B71">
+        <v>3.49</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43163</v>
+      </c>
+      <c r="B72">
+        <v>1.22</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595DAF7E-52B6-44FA-869E-BEB8F1B46B05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +347,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -366,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1313.5200000000002</v>
+        <v>1326.6700000000003</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -934,12 +935,15 @@
         <v>43163</v>
       </c>
       <c r="B72">
-        <v>1.22</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43164</v>
+      </c>
+      <c r="B73">
+        <v>4.2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595DAF7E-52B6-44FA-869E-BEB8F1B46B05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F249C46-1EFC-4228-831A-30DE322620BF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1326.6700000000003</v>
+        <v>1359.63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -943,46 +943,51 @@
         <v>43164</v>
       </c>
       <c r="B73">
-        <v>4.2</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>43165</v>
       </c>
+      <c r="B74">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>43166</v>
       </c>
+      <c r="B75">
+        <v>5.47</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43167</v>
       </c>
+      <c r="B76">
+        <v>4.05</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43168</v>
       </c>
+      <c r="B77">
+        <v>5.07</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>43169</v>
+        <v>43171</v>
+      </c>
+      <c r="B78">
+        <v>5.33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>43170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="1">
-        <v>43171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="1">
         <v>43172</v>
       </c>
     </row>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F249C46-1EFC-4228-831A-30DE322620BF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8936B6-E517-459F-B2EF-4D6EE61B5C87}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1359.63</v>
+        <v>1376.6100000000001</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -989,6 +989,78 @@
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43172</v>
+      </c>
+      <c r="B79">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43173</v>
+      </c>
+      <c r="B80">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>43174</v>
+      </c>
+      <c r="B81">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>43175</v>
+      </c>
+      <c r="B82">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>43176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>43182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>43183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>43184</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8936B6-E517-459F-B2EF-4D6EE61B5C87}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39DA7C-BBD4-4131-9419-2FF30947745B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1376.6100000000001</v>
+        <v>1393.79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1020,46 +1020,43 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>43176</v>
+        <v>43178</v>
+      </c>
+      <c r="B83">
+        <v>3.36</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>43177</v>
+        <v>43179</v>
+      </c>
+      <c r="B84">
+        <v>1.03</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>43178</v>
+        <v>43181</v>
+      </c>
+      <c r="B85">
+        <v>9.68</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>43179</v>
+        <v>43182</v>
+      </c>
+      <c r="B86">
+        <v>3.11</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>43180</v>
+        <v>43183</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="1">
-        <v>43182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="1">
-        <v>43183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="1">
         <v>43184</v>
       </c>
     </row>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39DA7C-BBD4-4131-9419-2FF30947745B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648A205-955F-4BB4-A0B3-0BED41A5EB48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1393.79</v>
+        <v>1409.0800000000002</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1023,7 +1023,7 @@
         <v>43178</v>
       </c>
       <c r="B83">
-        <v>3.36</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -1047,17 +1047,111 @@
         <v>43182</v>
       </c>
       <c r="B86">
-        <v>3.11</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>43183</v>
       </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>43184</v>
+        <v>43185</v>
+      </c>
+      <c r="B88">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>43186</v>
+      </c>
+      <c r="B89">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>43189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>43190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>43196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>43197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>43198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>43202</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7648A205-955F-4BB4-A0B3-0BED41A5EB48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F269C-CC19-4441-9BB1-CB45C3099986}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1409.0800000000002</v>
+        <v>1422.4500000000003</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1060,97 +1060,117 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>43185</v>
+        <v>43184</v>
       </c>
       <c r="B88">
-        <v>5.34</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>43186</v>
+        <v>43185</v>
       </c>
       <c r="B89">
-        <v>2.25</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>43187</v>
+        <v>43186</v>
+      </c>
+      <c r="B90">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
-        <v>43188</v>
+        <v>43187</v>
+      </c>
+      <c r="B91">
+        <v>2.94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>43189</v>
+        <v>43188</v>
+      </c>
+      <c r="B92">
+        <v>2.39</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>43190</v>
+        <v>43189</v>
+      </c>
+      <c r="B93">
+        <v>3.78</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
-        <v>43191</v>
+        <v>43190</v>
+      </c>
+      <c r="B94">
+        <v>1.74</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
-        <v>43192</v>
+        <v>43191</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
-        <v>43193</v>
+        <v>43192</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
-        <v>43194</v>
+        <v>43193</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
-        <v>43195</v>
+        <v>43194</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>43196</v>
+        <v>43195</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
-        <v>43197</v>
+        <v>43196</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
-        <v>43198</v>
+        <v>43197</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
-        <v>43199</v>
+        <v>43198</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>43200</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
-        <v>43201</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
         <v>43202</v>
       </c>
     </row>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F269C-CC19-4441-9BB1-CB45C3099986}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3951B8-1B42-4D5E-BECF-71DDE358FF3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1422.4500000000003</v>
+        <v>1436.2200000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1111,17 +1111,23 @@
         <v>43190</v>
       </c>
       <c r="B94">
-        <v>1.74</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>43191</v>
       </c>
+      <c r="B95">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>43192</v>
+      </c>
+      <c r="B96">
+        <v>3.94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3951B8-1B42-4D5E-BECF-71DDE358FF3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB64AA-4FF6-4DD0-806C-2B94E682D87D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1436.2200000000005</v>
+        <v>1450.7100000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1127,55 +1127,67 @@
         <v>43192</v>
       </c>
       <c r="B96">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>43193</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B97">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>43194</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B98">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>43195</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>43196</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>43197</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>43198</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>43199</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>43200</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>43201</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>43202</v>
       </c>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB64AA-4FF6-4DD0-806C-2B94E682D87D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A2A16-AA68-4ED4-A8EF-BF300278D6EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1450.7100000000005</v>
+        <v>1456.1900000000005</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1159,17 +1159,23 @@
         <v>43196</v>
       </c>
       <c r="B100">
-        <v>3.42</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>43197</v>
       </c>
+      <c r="B101">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>43198</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A2A16-AA68-4ED4-A8EF-BF300278D6EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F6F08-49AE-46F8-A76D-496177A2F345}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1456.1900000000005</v>
+        <v>1461.6100000000006</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1180,22 +1180,48 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>43199</v>
+        <v>43201</v>
+      </c>
+      <c r="B103">
+        <v>1.79</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
-        <v>43200</v>
+        <v>43202</v>
+      </c>
+      <c r="B104">
+        <v>3.63</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
-        <v>43201</v>
+        <v>43203</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
-        <v>43202</v>
+        <v>43204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>43208</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F6F08-49AE-46F8-A76D-496177A2F345}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65824708-C4C2-4F08-AED1-EEE7BED3A34D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>total</t>
   </si>
   <si>
     <t>before</t>
+  </si>
+  <si>
+    <t>Surface total</t>
+  </si>
+  <si>
+    <t>Mission total</t>
   </si>
 </sst>
 </file>
@@ -344,18 +350,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -367,10 +375,10 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1461.6100000000006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1465.5900000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43052</v>
       </c>
@@ -378,23 +386,35 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43053</v>
       </c>
       <c r="B3">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1461.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43054</v>
       </c>
       <c r="B4">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43055</v>
       </c>
@@ -402,7 +422,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43063</v>
       </c>
@@ -410,7 +430,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43064</v>
       </c>
@@ -418,7 +438,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43065</v>
       </c>
@@ -426,7 +446,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43066</v>
       </c>
@@ -434,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43067</v>
       </c>
@@ -442,7 +462,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43069</v>
       </c>
@@ -450,7 +470,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43070</v>
       </c>
@@ -458,7 +478,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43071</v>
       </c>
@@ -466,7 +486,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43072</v>
       </c>
@@ -474,7 +494,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43073</v>
       </c>
@@ -482,7 +502,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43074</v>
       </c>
@@ -490,7 +510,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43075</v>
       </c>
@@ -498,7 +518,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43076</v>
       </c>
@@ -506,7 +526,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43077</v>
       </c>
@@ -514,7 +534,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43078</v>
       </c>
@@ -522,7 +542,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43079</v>
       </c>
@@ -530,7 +550,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43080</v>
       </c>
@@ -538,7 +558,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43081</v>
       </c>
@@ -546,7 +566,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43083</v>
       </c>
@@ -554,7 +574,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43084</v>
       </c>
@@ -562,7 +582,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43085</v>
       </c>
@@ -570,7 +590,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43094</v>
       </c>
@@ -578,7 +598,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43095</v>
       </c>
@@ -586,7 +606,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43096</v>
       </c>
@@ -594,7 +614,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43112</v>
       </c>
@@ -602,7 +622,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43114</v>
       </c>
@@ -610,7 +630,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43116</v>
       </c>
@@ -618,7 +638,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43117</v>
       </c>
@@ -626,7 +646,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43118</v>
       </c>
@@ -634,7 +654,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43119</v>
       </c>
@@ -642,7 +662,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43121</v>
       </c>
@@ -650,7 +670,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43123</v>
       </c>
@@ -658,7 +678,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43125</v>
       </c>
@@ -666,7 +686,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43128</v>
       </c>
@@ -674,7 +694,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43129</v>
       </c>
@@ -682,7 +702,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43131</v>
       </c>
@@ -690,7 +710,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43132</v>
       </c>
@@ -698,7 +718,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43133</v>
       </c>
@@ -706,7 +726,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43134</v>
       </c>
@@ -714,7 +734,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43135</v>
       </c>
@@ -722,7 +742,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43136</v>
       </c>
@@ -730,7 +750,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43137</v>
       </c>
@@ -738,7 +758,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43138</v>
       </c>
@@ -746,7 +766,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43139</v>
       </c>
@@ -754,7 +774,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43140</v>
       </c>
@@ -762,7 +782,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43141</v>
       </c>
@@ -770,7 +790,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43143</v>
       </c>
@@ -778,7 +798,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43144</v>
       </c>
@@ -786,7 +806,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43145</v>
       </c>
@@ -794,7 +814,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43146</v>
       </c>
@@ -802,7 +822,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43147</v>
       </c>
@@ -810,7 +830,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43148</v>
       </c>
@@ -818,7 +838,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43149</v>
       </c>
@@ -826,7 +846,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43150</v>
       </c>
@@ -834,7 +854,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43151</v>
       </c>
@@ -842,7 +862,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43152</v>
       </c>
@@ -850,7 +870,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43153</v>
       </c>
@@ -858,7 +878,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43154</v>
       </c>
@@ -866,7 +886,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43155</v>
       </c>
@@ -874,7 +894,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43156</v>
       </c>
@@ -882,7 +902,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43157</v>
       </c>
@@ -890,7 +910,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43158</v>
       </c>
@@ -898,7 +918,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43159</v>
       </c>
@@ -906,7 +926,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43160</v>
       </c>
@@ -914,7 +934,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43161</v>
       </c>
@@ -922,7 +942,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43162</v>
       </c>
@@ -930,7 +950,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43163</v>
       </c>
@@ -938,7 +958,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43164</v>
       </c>
@@ -946,7 +966,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43165</v>
       </c>
@@ -954,7 +974,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43166</v>
       </c>
@@ -962,7 +982,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43167</v>
       </c>
@@ -970,7 +990,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43168</v>
       </c>
@@ -978,7 +998,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43171</v>
       </c>
@@ -986,7 +1006,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43172</v>
       </c>
@@ -994,7 +1014,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43173</v>
       </c>
@@ -1002,7 +1022,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43174</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43175</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43178</v>
       </c>
@@ -1026,7 +1046,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43179</v>
       </c>
@@ -1034,7 +1054,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43181</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43182</v>
       </c>
@@ -1050,7 +1070,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43183</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43184</v>
       </c>
@@ -1066,7 +1086,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43185</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43186</v>
       </c>
@@ -1082,7 +1102,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43187</v>
       </c>
@@ -1090,7 +1110,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43188</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43189</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43190</v>
       </c>
@@ -1114,7 +1134,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43191</v>
       </c>
@@ -1122,7 +1142,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43192</v>
       </c>
@@ -1130,7 +1150,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43193</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43194</v>
       </c>
@@ -1146,7 +1166,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43195</v>
       </c>
@@ -1154,7 +1174,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43196</v>
       </c>
@@ -1162,7 +1182,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43197</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43198</v>
       </c>
@@ -1178,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43201</v>
       </c>
@@ -1186,7 +1206,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43202</v>
       </c>
@@ -1194,35 +1214,36 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43289</v>
+      </c>
+      <c r="B105">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="1">
-        <v>43205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="1">
-        <v>43206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="1">
-        <v>43207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="1">
-        <v>43208</v>
-      </c>
+        <v>43290</v>
+      </c>
+      <c r="B106">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C24070-3AC4-460F-840B-E73DDDB87901}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F01E5-86E4-4534-BF14-B706DB69256E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,11 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -361,21 +356,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -390,7 +385,7 @@
         <v>1472.4600000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -402,10 +397,10 @@
       </c>
       <c r="E2">
         <f>SUM(C:C)</f>
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>18.479999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43052</v>
       </c>
@@ -417,10 +412,10 @@
       </c>
       <c r="E3">
         <f>SUM(E1:E2)</f>
-        <v>1476.4400000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1490.9400000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43053</v>
       </c>
@@ -428,7 +423,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43054</v>
       </c>
@@ -436,7 +431,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43055</v>
       </c>
@@ -444,7 +439,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43063</v>
       </c>
@@ -452,7 +447,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43064</v>
       </c>
@@ -460,7 +455,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43065</v>
       </c>
@@ -468,7 +463,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43066</v>
       </c>
@@ -476,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43067</v>
       </c>
@@ -484,7 +479,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43069</v>
       </c>
@@ -492,7 +487,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43070</v>
       </c>
@@ -500,7 +495,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -508,7 +503,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43072</v>
       </c>
@@ -516,7 +511,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43073</v>
       </c>
@@ -524,7 +519,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43074</v>
       </c>
@@ -532,7 +527,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43075</v>
       </c>
@@ -540,7 +535,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43076</v>
       </c>
@@ -548,7 +543,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43077</v>
       </c>
@@ -556,7 +551,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43078</v>
       </c>
@@ -564,7 +559,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43079</v>
       </c>
@@ -572,7 +567,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43080</v>
       </c>
@@ -580,7 +575,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43081</v>
       </c>
@@ -588,7 +583,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43083</v>
       </c>
@@ -596,7 +591,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43084</v>
       </c>
@@ -604,7 +599,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43085</v>
       </c>
@@ -612,7 +607,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43094</v>
       </c>
@@ -620,7 +615,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43095</v>
       </c>
@@ -628,7 +623,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43096</v>
       </c>
@@ -636,7 +631,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43112</v>
       </c>
@@ -644,7 +639,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43114</v>
       </c>
@@ -652,7 +647,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43116</v>
       </c>
@@ -660,7 +655,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43117</v>
       </c>
@@ -668,7 +663,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43118</v>
       </c>
@@ -676,7 +671,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43119</v>
       </c>
@@ -684,7 +679,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43121</v>
       </c>
@@ -692,7 +687,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43123</v>
       </c>
@@ -700,7 +695,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43125</v>
       </c>
@@ -708,7 +703,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43128</v>
       </c>
@@ -716,7 +711,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43129</v>
       </c>
@@ -724,7 +719,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43131</v>
       </c>
@@ -732,7 +727,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43132</v>
       </c>
@@ -740,7 +735,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43133</v>
       </c>
@@ -748,7 +743,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43134</v>
       </c>
@@ -756,7 +751,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43135</v>
       </c>
@@ -764,7 +759,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43136</v>
       </c>
@@ -772,7 +767,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43137</v>
       </c>
@@ -780,7 +775,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43138</v>
       </c>
@@ -788,7 +783,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43139</v>
       </c>
@@ -796,7 +791,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43140</v>
       </c>
@@ -804,7 +799,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43141</v>
       </c>
@@ -812,7 +807,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43143</v>
       </c>
@@ -820,7 +815,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43144</v>
       </c>
@@ -828,7 +823,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43145</v>
       </c>
@@ -836,7 +831,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43146</v>
       </c>
@@ -844,7 +839,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43147</v>
       </c>
@@ -852,7 +847,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43148</v>
       </c>
@@ -860,7 +855,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43149</v>
       </c>
@@ -868,7 +863,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43150</v>
       </c>
@@ -876,7 +871,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43151</v>
       </c>
@@ -884,7 +879,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43152</v>
       </c>
@@ -892,7 +887,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43153</v>
       </c>
@@ -900,7 +895,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43154</v>
       </c>
@@ -908,7 +903,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43155</v>
       </c>
@@ -916,7 +911,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43156</v>
       </c>
@@ -924,7 +919,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43157</v>
       </c>
@@ -932,7 +927,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43158</v>
       </c>
@@ -940,7 +935,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43159</v>
       </c>
@@ -948,7 +943,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43160</v>
       </c>
@@ -956,7 +951,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43161</v>
       </c>
@@ -964,7 +959,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43162</v>
       </c>
@@ -972,7 +967,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43163</v>
       </c>
@@ -980,7 +975,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43164</v>
       </c>
@@ -988,7 +983,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43165</v>
       </c>
@@ -996,7 +991,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43166</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43167</v>
       </c>
@@ -1012,7 +1007,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43168</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43171</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43172</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43173</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43174</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43175</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43178</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43179</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43181</v>
       </c>
@@ -1084,7 +1079,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43182</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43183</v>
       </c>
@@ -1100,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43184</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43185</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43186</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43187</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43188</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43189</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43190</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43191</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43192</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43193</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43194</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43195</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43196</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43197</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43198</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43201</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43202</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43203</v>
       </c>
@@ -1244,7 +1239,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43204</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43212</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43289</v>
       </c>
@@ -1268,7 +1263,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43290</v>
       </c>
@@ -1276,30 +1271,62 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
+        <v>43295</v>
+      </c>
+      <c r="C111">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43318</v>
+      </c>
+      <c r="C112">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>43319</v>
       </c>
-      <c r="B111">
+      <c r="B113">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="1">
+      <c r="C113">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>43320</v>
       </c>
-      <c r="B112">
+      <c r="B114">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" s="1"/>
+      <c r="C114">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43322</v>
+      </c>
+      <c r="C115">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43323</v>
+      </c>
+      <c r="C116">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F01E5-86E4-4534-BF14-B706DB69256E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDB524-B9D4-4990-BBFA-821829C3AD29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="3623" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>total</t>
   </si>
@@ -38,6 +44,9 @@
   </si>
   <si>
     <t>Mission</t>
+  </si>
+  <si>
+    <t>还没统计 Mission！</t>
   </si>
 </sst>
 </file>
@@ -356,21 +365,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -382,10 +391,10 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1472.4600000000007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1602.2200000000009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -400,7 +409,7 @@
         <v>18.479999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43052</v>
       </c>
@@ -412,18 +421,21 @@
       </c>
       <c r="E3">
         <f>SUM(E1:E2)</f>
-        <v>1490.9400000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1620.700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43053</v>
       </c>
       <c r="B4">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43054</v>
       </c>
@@ -431,7 +443,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43055</v>
       </c>
@@ -439,7 +451,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43063</v>
       </c>
@@ -447,7 +459,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43064</v>
       </c>
@@ -455,7 +467,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43065</v>
       </c>
@@ -463,7 +475,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43066</v>
       </c>
@@ -471,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43067</v>
       </c>
@@ -479,7 +491,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43069</v>
       </c>
@@ -487,7 +499,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43070</v>
       </c>
@@ -495,7 +507,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -503,7 +515,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43072</v>
       </c>
@@ -511,7 +523,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43073</v>
       </c>
@@ -519,7 +531,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43074</v>
       </c>
@@ -527,7 +539,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43075</v>
       </c>
@@ -535,7 +547,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43076</v>
       </c>
@@ -543,7 +555,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43077</v>
       </c>
@@ -551,7 +563,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43078</v>
       </c>
@@ -559,7 +571,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43079</v>
       </c>
@@ -567,7 +579,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43080</v>
       </c>
@@ -575,7 +587,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43081</v>
       </c>
@@ -583,7 +595,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43083</v>
       </c>
@@ -591,7 +603,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43084</v>
       </c>
@@ -599,7 +611,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43085</v>
       </c>
@@ -607,7 +619,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43094</v>
       </c>
@@ -615,7 +627,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43095</v>
       </c>
@@ -623,7 +635,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43096</v>
       </c>
@@ -631,7 +643,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43112</v>
       </c>
@@ -639,7 +651,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43114</v>
       </c>
@@ -647,7 +659,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43116</v>
       </c>
@@ -655,7 +667,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43117</v>
       </c>
@@ -663,7 +675,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43118</v>
       </c>
@@ -671,7 +683,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43119</v>
       </c>
@@ -679,7 +691,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43121</v>
       </c>
@@ -687,7 +699,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43123</v>
       </c>
@@ -695,7 +707,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>43125</v>
       </c>
@@ -703,7 +715,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>43128</v>
       </c>
@@ -711,7 +723,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43129</v>
       </c>
@@ -719,7 +731,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43131</v>
       </c>
@@ -727,7 +739,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43132</v>
       </c>
@@ -735,7 +747,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43133</v>
       </c>
@@ -743,7 +755,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43134</v>
       </c>
@@ -751,7 +763,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43135</v>
       </c>
@@ -759,7 +771,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43136</v>
       </c>
@@ -767,7 +779,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43137</v>
       </c>
@@ -775,7 +787,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43138</v>
       </c>
@@ -783,7 +795,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43139</v>
       </c>
@@ -791,7 +803,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43140</v>
       </c>
@@ -799,7 +811,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43141</v>
       </c>
@@ -807,7 +819,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43143</v>
       </c>
@@ -815,7 +827,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43144</v>
       </c>
@@ -823,7 +835,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43145</v>
       </c>
@@ -831,7 +843,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43146</v>
       </c>
@@ -839,7 +851,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43147</v>
       </c>
@@ -847,7 +859,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43148</v>
       </c>
@@ -855,7 +867,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43149</v>
       </c>
@@ -863,7 +875,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43150</v>
       </c>
@@ -871,7 +883,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43151</v>
       </c>
@@ -879,7 +891,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43152</v>
       </c>
@@ -887,7 +899,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43153</v>
       </c>
@@ -895,7 +907,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43154</v>
       </c>
@@ -903,7 +915,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43155</v>
       </c>
@@ -911,7 +923,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43156</v>
       </c>
@@ -919,7 +931,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43157</v>
       </c>
@@ -927,7 +939,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43158</v>
       </c>
@@ -935,7 +947,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43159</v>
       </c>
@@ -943,7 +955,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43160</v>
       </c>
@@ -951,7 +963,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43161</v>
       </c>
@@ -959,7 +971,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43162</v>
       </c>
@@ -967,7 +979,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43163</v>
       </c>
@@ -975,7 +987,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>43164</v>
       </c>
@@ -983,7 +995,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>43165</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43166</v>
       </c>
@@ -999,7 +1011,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43167</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43168</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43171</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43172</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>43173</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>43174</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>43175</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>43178</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>43179</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>43181</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>43182</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>43183</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>43184</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>43185</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>43186</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>43187</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>43188</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>43189</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>43190</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>43191</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>43192</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>43193</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>43194</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>43195</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>43196</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>43197</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>43198</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>43201</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>43202</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>43203</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>43204</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>43212</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>43289</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>43290</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>43295</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>43318</v>
       </c>
@@ -1287,7 +1299,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>43319</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>43320</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>43322</v>
       </c>
@@ -1317,16 +1329,1271 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>43323</v>
       </c>
+      <c r="B116">
+        <v>0.88</v>
+      </c>
       <c r="C116">
         <v>1.04</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>43336</v>
+      </c>
+      <c r="B117">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B118">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>43338</v>
+      </c>
+      <c r="B119">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B120">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>43341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B125">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B126">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
+        <v>43346</v>
+      </c>
+      <c r="B127">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>43351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
+        <v>43355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>43359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B142">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>43362</v>
+      </c>
+      <c r="B143">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>43365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>43366</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>43367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
+        <v>43370</v>
+      </c>
+      <c r="B151">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B152">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="1">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
+        <v>43379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="1">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="1">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="1">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="1">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="1">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
+        <v>43393</v>
+      </c>
+      <c r="B174">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B175">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
+        <v>43395</v>
+      </c>
+      <c r="B176">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="1">
+        <v>43396</v>
+      </c>
+      <c r="B177">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
+        <v>43397</v>
+      </c>
+      <c r="B178">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="1">
+        <v>43398</v>
+      </c>
+      <c r="B179">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="1">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="1">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
+        <v>43401</v>
+      </c>
+      <c r="B182">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="1">
+        <v>43402</v>
+      </c>
+      <c r="B183">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B184">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B185">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B186">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B187">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B188">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
+        <v>43408</v>
+      </c>
+      <c r="B189">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B190">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
+        <v>43410</v>
+      </c>
+      <c r="B191">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B195">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
+        <v>43415</v>
+      </c>
+      <c r="B196">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B210">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B216">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
+        <v>43436</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" s="1">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" s="1">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" s="1">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" s="1">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" s="1">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" s="1">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" s="1">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" s="1">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" s="1">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" s="1">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" s="1">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" s="1">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" s="1">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" s="1">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" s="1">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" s="1">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" s="1">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" s="1">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" s="1">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" s="1">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" s="1">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" s="1">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" s="1">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" s="1">
+        <v>43464</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" s="1">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" s="1">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" s="1">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" s="1">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" s="1">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" s="1">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" s="1">
+        <v>43473</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" s="1">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" s="1">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" s="1">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" s="1">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" s="1">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" s="1">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" s="1">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" s="1">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" s="1">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" s="1">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" s="1">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" s="1">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" s="1">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" s="1">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" s="1">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" s="1">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" s="1">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" s="1">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" s="1">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" s="1">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" s="1">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B277">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" s="1">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" s="1">
+        <v>43499</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" s="1">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" s="1">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" s="1">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" s="1">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" s="1">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" s="1">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" s="1">
+        <v>43509</v>
+      </c>
+      <c r="B290">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B291">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" s="1">
+        <v>43511</v>
+      </c>
+      <c r="B292">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" s="1">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" s="1">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" s="1">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" s="1">
+        <v>43516</v>
+      </c>
+      <c r="B297">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" s="1">
+        <v>43518</v>
+      </c>
+      <c r="B299">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" s="1">
+        <v>43519</v>
+      </c>
+      <c r="B300">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B301">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B302">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304" s="1">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B306">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" s="1">
+        <v>43526</v>
+      </c>
+      <c r="B307">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B308">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B309">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" s="1">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B314">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315" s="1">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" s="1">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" s="1">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A321" s="1">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A322" s="1">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A323" s="1">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324" s="1">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325" s="1">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326" s="1">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A327" s="1">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A328" s="1">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A329" s="1">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A330" s="1">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A331" s="1">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A332" s="1">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A333" s="1">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A334" s="1">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A335" s="1">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A336" s="1">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337" s="1">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338" s="1">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339" s="1">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340" s="1">
+        <v>43559</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12A091-AEC3-4C70-8D3F-263C92DC9E62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634BA5C-DB0F-4288-9781-3E3BBB804D76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1140" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>total</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Mission</t>
+  </si>
+  <si>
+    <t>注意：如果某个设备在某个日期有记录，就代表之前的日期全部都检查过了</t>
   </si>
 </sst>
 </file>
@@ -79,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -376,7 +380,7 @@
     <col min="5" max="5" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -388,10 +392,10 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1657.1500000000008</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1671.5200000000009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -403,10 +407,10 @@
       </c>
       <c r="E2">
         <f>SUM(C:C)</f>
-        <v>104.28999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>139.93999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43052</v>
       </c>
@@ -418,10 +422,10 @@
       </c>
       <c r="E3">
         <f>SUM(E1:E2)</f>
-        <v>1761.4400000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1811.4600000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43053</v>
       </c>
@@ -429,7 +433,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43054</v>
       </c>
@@ -437,87 +441,139 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43055</v>
       </c>
       <c r="B6">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43063</v>
       </c>
       <c r="B7">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43064</v>
       </c>
       <c r="B8">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43065</v>
       </c>
       <c r="B9">
         <v>5.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43066</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43067</v>
       </c>
       <c r="B11">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43069</v>
       </c>
       <c r="B12">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43070</v>
       </c>
       <c r="B13">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
       <c r="B14">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43072</v>
       </c>
       <c r="B15">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43073</v>
       </c>
@@ -1910,194 +1966,341 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>43539</v>
+        <v>43540</v>
+      </c>
+      <c r="C185">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
-        <v>43540</v>
+        <v>43541</v>
+      </c>
+      <c r="B186">
+        <v>2.39</v>
       </c>
       <c r="C186">
-        <v>4.2699999999999996</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
-        <v>43541</v>
+        <v>43542</v>
       </c>
       <c r="B187">
-        <v>2.39</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C187">
-        <v>4.66</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="B188">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C188">
-        <v>1.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B189">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
-        <v>43544</v>
+        <v>43545</v>
       </c>
       <c r="B190">
-        <v>0.38</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
-        <v>43545</v>
+        <v>43546</v>
       </c>
       <c r="B191">
-        <v>3.23</v>
+        <v>0.51</v>
+      </c>
+      <c r="C191">
+        <v>0.82</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
-        <v>43546</v>
-      </c>
-      <c r="B192">
-        <v>0.51</v>
+        <v>43547</v>
       </c>
       <c r="C192">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
-        <v>43547</v>
-      </c>
-      <c r="C193">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+        <v>43551</v>
+      </c>
+      <c r="B193">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="B194">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="B195">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
-        <v>43553</v>
+        <v>43554</v>
       </c>
       <c r="B196">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6.27</v>
+      </c>
+      <c r="C196">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
-        <v>43554</v>
+        <v>43555</v>
       </c>
       <c r="B197">
-        <v>6.27</v>
-      </c>
-      <c r="C197">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
-        <v>43555</v>
+        <v>43556</v>
       </c>
       <c r="B198">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.1</v>
+      </c>
+      <c r="C198">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
-        <v>43556</v>
+        <v>43557</v>
       </c>
       <c r="B199">
+        <v>0.8</v>
+      </c>
+      <c r="C199">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B200">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B201">
+        <v>0.27</v>
+      </c>
+      <c r="C201">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>43560</v>
+      </c>
+      <c r="C202">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B203">
+        <v>3.93</v>
+      </c>
+      <c r="C203">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B204">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B205">
+        <v>1.53</v>
+      </c>
+      <c r="C205">
         <v>2.1</v>
       </c>
-      <c r="C199">
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A200" s="1">
-        <v>43557</v>
-      </c>
-      <c r="B200">
-        <v>0.8</v>
-      </c>
-      <c r="C200">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A201" s="1">
-        <v>43558</v>
-      </c>
-      <c r="B201">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A202" s="1">
-        <v>43559</v>
-      </c>
-      <c r="B202">
-        <v>0.27</v>
-      </c>
-      <c r="C202">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D208" t="s">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B206">
+        <v>3.69</v>
+      </c>
+      <c r="C206">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B207">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C207">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C208">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C209">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C210">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>43569</v>
+      </c>
+      <c r="C211">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C212">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C213">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C214">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B215">
+        <v>1.47</v>
+      </c>
+      <c r="C215">
+        <v>0.35</v>
+      </c>
+      <c r="E215" t="s">
         <v>2</v>
       </c>
-      <c r="E208">
+      <c r="F215">
         <f>SUM(B:B)</f>
-        <v>1657.1500000000008</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D209" t="s">
+        <v>1671.5200000000009</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
+        <v>43574</v>
+      </c>
+      <c r="E216" t="s">
         <v>3</v>
       </c>
-      <c r="E209">
+      <c r="F216">
         <f>SUM(C:C)</f>
-        <v>104.28999999999998</v>
-      </c>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D210" t="s">
+        <v>139.93999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
+        <v>43575</v>
+      </c>
+      <c r="E217" t="s">
         <v>0</v>
       </c>
-      <c r="E210">
-        <f>SUM(E208:E209)</f>
-        <v>1761.4400000000007</v>
+      <c r="F217">
+        <f>SUM(F215:F216)</f>
+        <v>1811.4600000000009</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" s="1">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" s="1">
+        <v>43579</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634BA5C-DB0F-4288-9781-3E3BBB804D76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18DF2F5-3396-4290-B2AF-4CA42D5EE8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1140" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,19 +368,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="23.1328125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -392,10 +392,10 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1671.5200000000009</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1678.7900000000011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -407,10 +407,10 @@
       </c>
       <c r="E2">
         <f>SUM(C:C)</f>
-        <v>139.93999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>162.66999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43052</v>
       </c>
@@ -422,10 +422,10 @@
       </c>
       <c r="E3">
         <f>SUM(E1:E2)</f>
-        <v>1811.4600000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1841.4600000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43053</v>
       </c>
@@ -433,7 +433,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43054</v>
       </c>
@@ -441,7 +441,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43055</v>
       </c>
@@ -456,7 +456,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43063</v>
       </c>
@@ -469,7 +469,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43064</v>
       </c>
@@ -482,7 +482,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43065</v>
       </c>
@@ -495,7 +495,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43066</v>
       </c>
@@ -508,7 +508,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43067</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43069</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43070</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43071</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43072</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43073</v>
       </c>
@@ -581,7 +581,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43074</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43075</v>
       </c>
@@ -597,7 +597,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43076</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43077</v>
       </c>
@@ -613,7 +613,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43078</v>
       </c>
@@ -621,7 +621,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43079</v>
       </c>
@@ -629,7 +629,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43080</v>
       </c>
@@ -637,7 +637,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43081</v>
       </c>
@@ -645,7 +645,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43083</v>
       </c>
@@ -653,7 +653,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43084</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43085</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43094</v>
       </c>
@@ -677,7 +677,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43095</v>
       </c>
@@ -685,7 +685,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43096</v>
       </c>
@@ -693,7 +693,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43112</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43114</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43116</v>
       </c>
@@ -717,7 +717,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43117</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43118</v>
       </c>
@@ -733,7 +733,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43119</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43121</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43123</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43125</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43128</v>
       </c>
@@ -773,7 +773,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43129</v>
       </c>
@@ -781,7 +781,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43131</v>
       </c>
@@ -789,7 +789,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43132</v>
       </c>
@@ -797,7 +797,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43133</v>
       </c>
@@ -805,7 +805,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43134</v>
       </c>
@@ -813,7 +813,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43135</v>
       </c>
@@ -821,7 +821,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43136</v>
       </c>
@@ -829,7 +829,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43137</v>
       </c>
@@ -837,7 +837,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43138</v>
       </c>
@@ -845,7 +845,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43139</v>
       </c>
@@ -853,7 +853,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43140</v>
       </c>
@@ -861,7 +861,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43141</v>
       </c>
@@ -869,7 +869,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43143</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43144</v>
       </c>
@@ -885,7 +885,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43145</v>
       </c>
@@ -893,7 +893,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43146</v>
       </c>
@@ -901,7 +901,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43147</v>
       </c>
@@ -909,7 +909,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43148</v>
       </c>
@@ -917,7 +917,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43149</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43150</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43151</v>
       </c>
@@ -941,7 +941,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43152</v>
       </c>
@@ -949,7 +949,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43153</v>
       </c>
@@ -957,7 +957,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43154</v>
       </c>
@@ -965,7 +965,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43155</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43156</v>
       </c>
@@ -981,7 +981,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43157</v>
       </c>
@@ -989,7 +989,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43158</v>
       </c>
@@ -997,7 +997,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43159</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43160</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43161</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43162</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43163</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43164</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43165</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43166</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43167</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43168</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43171</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43172</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43173</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43174</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43175</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43178</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43179</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43181</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43182</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43183</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43184</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43185</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43186</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43187</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43188</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43189</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43190</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43191</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43192</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43193</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43194</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43195</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43196</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43197</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43198</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43201</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43202</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43203</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43204</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43212</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43289</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43290</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43295</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43318</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43319</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43320</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43322</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43323</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43327</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43328</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43329</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43336</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43337</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43338</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43339</v>
       </c>
@@ -1452,12 +1452,12 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43340</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43341</v>
       </c>
@@ -1465,12 +1465,12 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43342</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43343</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43344</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43345</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43346</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43361</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43362</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43370</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43371</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43393</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43394</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43395</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43396</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43397</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43398</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43401</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43402</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43403</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43404</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43405</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43406</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43407</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43408</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43409</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43410</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43414</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43415</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43429</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43432</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43435</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43455</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43456</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43469</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43470</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43471</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43472</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43496</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43504</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43509</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43510</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43511</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43512</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43513</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43516</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43517</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43518</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43519</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43520</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43521</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43525</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43526</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43527</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43528</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43533</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43534</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43535</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43536</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43537</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43538</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43540</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43541</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43542</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43543</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43544</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43545</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43546</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43547</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43551</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43552</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43553</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43554</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43555</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43556</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43557</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43558</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43559</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43560</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43561</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43562</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43563</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43564</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43565</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43566</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43567</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43568</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43569</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43570</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43571</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43572</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43573</v>
       </c>
@@ -2245,58 +2245,88 @@
         <v>1.47</v>
       </c>
       <c r="C215">
-        <v>0.35</v>
+        <v>4.63</v>
       </c>
       <c r="E215" t="s">
         <v>2</v>
       </c>
       <c r="F215">
         <f>SUM(B:B)</f>
-        <v>1671.5200000000009</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1678.7900000000011</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43574</v>
       </c>
+      <c r="B216">
+        <v>0.22</v>
+      </c>
+      <c r="C216">
+        <v>4.21</v>
+      </c>
       <c r="E216" t="s">
         <v>3</v>
       </c>
       <c r="F216">
         <f>SUM(C:C)</f>
-        <v>139.93999999999997</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+        <v>162.66999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43575</v>
       </c>
+      <c r="C217">
+        <v>1.91</v>
+      </c>
       <c r="E217" t="s">
         <v>0</v>
       </c>
       <c r="F217">
         <f>SUM(F215:F216)</f>
-        <v>1811.4600000000009</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1841.4600000000009</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43576</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B218">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43577</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B219">
+        <v>2.97</v>
+      </c>
+      <c r="C219">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43578</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B220">
+        <v>1.43</v>
+      </c>
+      <c r="C220">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43579</v>
+      </c>
+      <c r="B221">
+        <v>0.13</v>
+      </c>
+      <c r="C221">
+        <v>4.72</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18DF2F5-3396-4290-B2AF-4CA42D5EE8E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F7AE57-48AB-4504-9492-E97568193F38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>total</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>注意：如果某个设备在某个日期有记录，就代表之前的日期全部都检查过了</t>
+  </si>
+  <si>
+    <t>重装电脑数据丢失到5/7/2019（可以在截图里面找）</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
@@ -392,7 +395,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1678.7900000000011</v>
+        <v>1709.3400000000013</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -407,7 +410,7 @@
       </c>
       <c r="E2">
         <f>SUM(C:C)</f>
-        <v>162.66999999999996</v>
+        <v>190.65999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -422,7 +425,7 @@
       </c>
       <c r="E3">
         <f>SUM(E1:E2)</f>
-        <v>1841.4600000000009</v>
+        <v>1900.0000000000014</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,7 +2255,7 @@
       </c>
       <c r="F215">
         <f>SUM(B:B)</f>
-        <v>1678.7900000000011</v>
+        <v>1709.3400000000013</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2273,7 @@
       </c>
       <c r="F216">
         <f>SUM(C:C)</f>
-        <v>162.66999999999996</v>
+        <v>190.65999999999997</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,7 +2288,7 @@
       </c>
       <c r="F217">
         <f>SUM(F215:F216)</f>
-        <v>1841.4600000000009</v>
+        <v>1900.0000000000014</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,7 +2329,135 @@
         <v>0.13</v>
       </c>
       <c r="C221">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43580</v>
+      </c>
+      <c r="C222">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C223">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C224">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43588</v>
+      </c>
+      <c r="C225">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43591</v>
+      </c>
+      <c r="C226">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B228">
+        <v>3.01</v>
+      </c>
+      <c r="C228">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43595</v>
+      </c>
+      <c r="C229">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B230">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43598</v>
+      </c>
+      <c r="C231">
         <v>4.72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43599</v>
+      </c>
+      <c r="C232">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B233">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B234">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B235">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43604</v>
+      </c>
+      <c r="B236">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C237">
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F7AE57-48AB-4504-9492-E97568193F38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA50B2-E5B7-434B-81A9-ECFF9B6CBAAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="1860" windowWidth="13350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>total</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>注意：如果某个设备在某个日期有记录，就代表之前的日期全部都检查过了</t>
-  </si>
-  <si>
-    <t>重装电脑数据丢失到5/7/2019（可以在截图里面找）</t>
   </si>
 </sst>
 </file>
@@ -369,15 +366,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="I226" sqref="I226"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="H255" sqref="H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
@@ -395,7 +393,7 @@
       </c>
       <c r="E1">
         <f>SUM(B:B)</f>
-        <v>1709.3400000000013</v>
+        <v>1824.7300000000014</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -410,7 +408,7 @@
       </c>
       <c r="E2">
         <f>SUM(C:C)</f>
-        <v>190.65999999999997</v>
+        <v>204.29999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -425,7 +423,7 @@
       </c>
       <c r="E3">
         <f>SUM(E1:E2)</f>
-        <v>1900.0000000000014</v>
+        <v>2029.0300000000013</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2192,7 +2190,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43567</v>
       </c>
@@ -2200,7 +2198,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43568</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43569</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43570</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43571</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43572</v>
       </c>
@@ -2240,7 +2238,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43573</v>
       </c>
@@ -2250,15 +2248,8 @@
       <c r="C215">
         <v>4.63</v>
       </c>
-      <c r="E215" t="s">
-        <v>2</v>
-      </c>
-      <c r="F215">
-        <f>SUM(B:B)</f>
-        <v>1709.3400000000013</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43574</v>
       </c>
@@ -2268,30 +2259,16 @@
       <c r="C216">
         <v>4.21</v>
       </c>
-      <c r="E216" t="s">
-        <v>3</v>
-      </c>
-      <c r="F216">
-        <f>SUM(C:C)</f>
-        <v>190.65999999999997</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43575</v>
       </c>
       <c r="C217">
         <v>1.91</v>
       </c>
-      <c r="E217" t="s">
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <f>SUM(F215:F216)</f>
-        <v>1900.0000000000014</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43576</v>
       </c>
@@ -2299,7 +2276,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43577</v>
       </c>
@@ -2310,7 +2287,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43578</v>
       </c>
@@ -2321,7 +2298,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43579</v>
       </c>
@@ -2332,7 +2309,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43580</v>
       </c>
@@ -2340,17 +2317,23 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43581</v>
       </c>
+      <c r="B223">
+        <v>1.3</v>
+      </c>
       <c r="C223">
         <v>1.94</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43586</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
       </c>
       <c r="C224">
         <v>3.81</v>
@@ -2368,97 +2351,360 @@
       <c r="A226" s="1">
         <v>43591</v>
       </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
       <c r="C226">
         <v>3.9</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
-        <v>7</v>
+      <c r="A227" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B227">
+        <v>3.01</v>
+      </c>
+      <c r="C227">
+        <v>0.81</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>43594</v>
-      </c>
-      <c r="B228">
-        <v>3.01</v>
+        <v>43595</v>
       </c>
       <c r="C228">
-        <v>0.81</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>43595</v>
-      </c>
-      <c r="C229">
-        <v>5.56</v>
+        <v>43597</v>
+      </c>
+      <c r="B229">
+        <v>2.76</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>43597</v>
-      </c>
-      <c r="B230">
-        <v>2.76</v>
+        <v>43598</v>
+      </c>
+      <c r="C230">
+        <v>4.72</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>43598</v>
+        <v>43599</v>
       </c>
       <c r="C231">
-        <v>4.72</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>43599</v>
-      </c>
-      <c r="C232">
-        <v>1.0900000000000001</v>
+        <v>43601</v>
+      </c>
+      <c r="B232">
+        <v>2.02</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>43601</v>
+        <v>43602</v>
       </c>
       <c r="B233">
-        <v>2.02</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>43602</v>
+        <v>43603</v>
       </c>
       <c r="B234">
-        <v>2.4700000000000002</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>43603</v>
+        <v>43604</v>
       </c>
       <c r="B235">
-        <v>13.64</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>43604</v>
+        <v>43605</v>
       </c>
       <c r="B236">
-        <v>6.65</v>
+        <v>6.59</v>
+      </c>
+      <c r="C236">
+        <v>3.39</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>43605</v>
+        <v>43606</v>
+      </c>
+      <c r="B237">
+        <v>4.55</v>
       </c>
       <c r="C237">
-        <v>3.14</v>
-      </c>
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43607</v>
+      </c>
+      <c r="B238">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B239">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B240">
+        <v>5.73</v>
+      </c>
+      <c r="C240">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B241">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B242">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B243">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B244">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B245">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B246">
+        <v>12.09</v>
+      </c>
+      <c r="C246">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B247">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B248">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43618</v>
+      </c>
+      <c r="B249">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43619</v>
+      </c>
+      <c r="C250">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43620</v>
+      </c>
+      <c r="C251">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B254">
+        <v>0.7</v>
+      </c>
+      <c r="C254">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>43625</v>
+      </c>
+      <c r="B256">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B257">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>43627</v>
+      </c>
+      <c r="B258">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>43628</v>
+      </c>
+      <c r="B259">
+        <v>5.4</v>
+      </c>
+      <c r="C259">
+        <v>1.01</v>
+      </c>
+      <c r="E259" t="s">
+        <v>2</v>
+      </c>
+      <c r="F259">
+        <f>SUM(B:B)</f>
+        <v>1824.7300000000014</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B260">
+        <v>7.81</v>
+      </c>
+      <c r="E260" t="s">
+        <v>3</v>
+      </c>
+      <c r="F260">
+        <f>SUM(C:C)</f>
+        <v>204.29999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B261">
+        <v>2.64</v>
+      </c>
+      <c r="E261" t="s">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <f>SUM(F259:F260)</f>
+        <v>2029.0300000000013</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>43631</v>
+      </c>
+      <c r="B262">
+        <v>1.92</v>
+      </c>
+      <c r="C262">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207773F-162A-4748-AA18-792FB35186D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EEDE1B-81F4-4DC4-ACED-EAC395F44D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,10 +228,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>小时!$D$3:$D$279</c:f>
+              <c:f>小时!$D$3:$D$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
                 </c:pt>
@@ -1062,6 +1062,129 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="J278" sqref="J278"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="H271" sqref="H271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2271,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>1886.7500000000014</v>
+        <v>2058.9600000000014</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2186,7 +2309,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2123.3100000000013</v>
+        <v>2295.5200000000013</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2705,7 +2828,7 @@
         <v>0.48</v>
       </c>
       <c r="D42">
-        <f xml:space="preserve"> B42 + C42</f>
+        <f t="shared" ref="D42:D51" si="1" xml:space="preserve"> B42 + C42</f>
         <v>0.48</v>
       </c>
     </row>
@@ -2717,7 +2840,7 @@
         <v>5.2</v>
       </c>
       <c r="D43">
-        <f xml:space="preserve"> B43 + C43</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
     </row>
@@ -2729,7 +2852,7 @@
         <v>2.65</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> B44 + C44</f>
+        <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
     </row>
@@ -2741,7 +2864,7 @@
         <v>7.76</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> B45 + C45</f>
+        <f t="shared" si="1"/>
         <v>7.76</v>
       </c>
     </row>
@@ -2753,7 +2876,7 @@
         <v>2.79</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> B46 + C46</f>
+        <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
     </row>
@@ -2765,7 +2888,7 @@
         <v>5.4</v>
       </c>
       <c r="D47">
-        <f xml:space="preserve"> B47 + C47</f>
+        <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
     </row>
@@ -2777,7 +2900,7 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="D48">
-        <f xml:space="preserve"> B48 + C48</f>
+        <f t="shared" si="1"/>
         <v>9.5299999999999994</v>
       </c>
     </row>
@@ -2789,7 +2912,7 @@
         <v>4.12</v>
       </c>
       <c r="D49">
-        <f xml:space="preserve"> B49 + C49</f>
+        <f t="shared" si="1"/>
         <v>4.12</v>
       </c>
     </row>
@@ -2801,7 +2924,7 @@
         <v>10.220000000000001</v>
       </c>
       <c r="D50">
-        <f xml:space="preserve"> B50 + C50</f>
+        <f t="shared" si="1"/>
         <v>10.220000000000001</v>
       </c>
     </row>
@@ -2813,7 +2936,7 @@
         <v>10.99</v>
       </c>
       <c r="D51">
-        <f xml:space="preserve"> B51 + C51</f>
+        <f t="shared" si="1"/>
         <v>10.99</v>
       </c>
     </row>
@@ -2825,7 +2948,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52:D116" si="1" xml:space="preserve"> B52 + C52</f>
+        <f t="shared" ref="D52:D116" si="2" xml:space="preserve"> B52 + C52</f>
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -2837,7 +2960,7 @@
         <v>2.48</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.48</v>
       </c>
     </row>
@@ -2849,7 +2972,7 @@
         <v>9.66</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.66</v>
       </c>
     </row>
@@ -2861,7 +2984,7 @@
         <v>9.68</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.68</v>
       </c>
     </row>
@@ -2873,7 +2996,7 @@
         <v>6.06</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.06</v>
       </c>
     </row>
@@ -2885,7 +3008,7 @@
         <v>5.62</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.62</v>
       </c>
     </row>
@@ -2897,7 +3020,7 @@
         <v>2.85</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.85</v>
       </c>
     </row>
@@ -2909,7 +3032,7 @@
         <v>1.82</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.82</v>
       </c>
     </row>
@@ -2921,7 +3044,7 @@
         <v>1.78</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
     </row>
@@ -2933,7 +3056,7 @@
         <v>3.47</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.47</v>
       </c>
     </row>
@@ -2945,7 +3068,7 @@
         <v>8.27</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.27</v>
       </c>
     </row>
@@ -2957,7 +3080,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -2969,7 +3092,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2699999999999996</v>
       </c>
     </row>
@@ -2981,7 +3104,7 @@
         <v>4.46</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.46</v>
       </c>
     </row>
@@ -2993,7 +3116,7 @@
         <v>2.89</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.89</v>
       </c>
     </row>
@@ -3005,7 +3128,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1300000000000008</v>
       </c>
     </row>
@@ -3017,7 +3140,7 @@
         <v>6.06</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.06</v>
       </c>
     </row>
@@ -3029,7 +3152,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1100000000000003</v>
       </c>
     </row>
@@ -3041,7 +3164,7 @@
         <v>5.53</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.53</v>
       </c>
     </row>
@@ -3053,7 +3176,7 @@
         <v>5.07</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.07</v>
       </c>
     </row>
@@ -3065,7 +3188,7 @@
         <v>3.49</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.49</v>
       </c>
     </row>
@@ -3077,7 +3200,7 @@
         <v>10.17</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.17</v>
       </c>
     </row>
@@ -3089,7 +3212,7 @@
         <v>11.11</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.11</v>
       </c>
     </row>
@@ -3101,7 +3224,7 @@
         <v>6.13</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.13</v>
       </c>
     </row>
@@ -3113,7 +3236,7 @@
         <v>5.47</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.47</v>
       </c>
     </row>
@@ -3125,7 +3248,7 @@
         <v>4.05</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.05</v>
       </c>
     </row>
@@ -3137,7 +3260,7 @@
         <v>5.07</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.07</v>
       </c>
     </row>
@@ -3149,7 +3272,7 @@
         <v>5.33</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.33</v>
       </c>
     </row>
@@ -3161,7 +3284,7 @@
         <v>1.31</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.31</v>
       </c>
     </row>
@@ -3173,7 +3296,7 @@
         <v>7.9</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
     </row>
@@ -3185,7 +3308,7 @@
         <v>6.12</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.12</v>
       </c>
     </row>
@@ -3197,7 +3320,7 @@
         <v>1.65</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65</v>
       </c>
     </row>
@@ -3209,7 +3332,7 @@
         <v>5.88</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.88</v>
       </c>
     </row>
@@ -3221,7 +3344,7 @@
         <v>1.03</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.03</v>
       </c>
     </row>
@@ -3233,7 +3356,7 @@
         <v>9.68</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.68</v>
       </c>
     </row>
@@ -3245,7 +3368,7 @@
         <v>5.29</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.29</v>
       </c>
     </row>
@@ -3257,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -3269,7 +3392,7 @@
         <v>0.17</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
     </row>
@@ -3281,7 +3404,7 @@
         <v>5.34</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.34</v>
       </c>
     </row>
@@ -3293,7 +3416,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3305,7 +3428,7 @@
         <v>2.94</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.94</v>
       </c>
     </row>
@@ -3317,7 +3440,7 @@
         <v>2.39</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.39</v>
       </c>
     </row>
@@ -3329,7 +3452,7 @@
         <v>3.78</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
     </row>
@@ -3341,7 +3464,7 @@
         <v>9.44</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.44</v>
       </c>
     </row>
@@ -3353,7 +3476,7 @@
         <v>2.13</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.13</v>
       </c>
     </row>
@@ -3365,7 +3488,7 @@
         <v>4.41</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.41</v>
       </c>
     </row>
@@ -3377,7 +3500,7 @@
         <v>5.86</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.86</v>
       </c>
     </row>
@@ -3389,7 +3512,7 @@
         <v>3.71</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.71</v>
       </c>
     </row>
@@ -3401,7 +3524,7 @@
         <v>1.03</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.03</v>
       </c>
     </row>
@@ -3413,7 +3536,7 @@
         <v>4.25</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
     </row>
@@ -3425,7 +3548,7 @@
         <v>0.65</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
     </row>
@@ -3437,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3449,7 +3572,7 @@
         <v>1.79</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.79</v>
       </c>
     </row>
@@ -3461,7 +3584,7 @@
         <v>3.63</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.63</v>
       </c>
     </row>
@@ -3473,7 +3596,7 @@
         <v>1.64</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.64</v>
       </c>
     </row>
@@ -3485,7 +3608,7 @@
         <v>1.81</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.81</v>
       </c>
     </row>
@@ -3497,7 +3620,7 @@
         <v>0.93</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
     </row>
@@ -3509,7 +3632,7 @@
         <v>3.61</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.61</v>
       </c>
     </row>
@@ -3521,7 +3644,7 @@
         <v>0.37</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37</v>
       </c>
     </row>
@@ -3533,7 +3656,7 @@
         <v>3.39</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.39</v>
       </c>
     </row>
@@ -3545,7 +3668,7 @@
         <v>0.62</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
     </row>
@@ -3560,7 +3683,7 @@
         <v>4.37</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1</v>
       </c>
     </row>
@@ -3575,7 +3698,7 @@
         <v>2.79</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.53</v>
       </c>
     </row>
@@ -3587,7 +3710,7 @@
         <v>2.29</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.29</v>
       </c>
     </row>
@@ -3602,7 +3725,7 @@
         <v>2.7</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.58</v>
       </c>
     </row>
@@ -3614,7 +3737,7 @@
         <v>0.33</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117:D178" si="2" xml:space="preserve"> B117 + C117</f>
+        <f t="shared" ref="D117:D178" si="3" xml:space="preserve"> B117 + C117</f>
         <v>0.33</v>
       </c>
     </row>
@@ -3626,7 +3749,7 @@
         <v>2.33</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.33</v>
       </c>
     </row>
@@ -3638,7 +3761,7 @@
         <v>1.38</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.38</v>
       </c>
     </row>
@@ -3653,7 +3776,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.54</v>
       </c>
     </row>
@@ -3665,7 +3788,7 @@
         <v>6.29</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.29</v>
       </c>
     </row>
@@ -3677,7 +3800,7 @@
         <v>3.67</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.67</v>
       </c>
     </row>
@@ -3692,7 +3815,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.64</v>
       </c>
     </row>
@@ -3704,7 +3827,7 @@
         <v>4.03</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.03</v>
       </c>
     </row>
@@ -3716,7 +3839,7 @@
         <v>0.45</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
     </row>
@@ -3728,7 +3851,7 @@
         <v>3.89</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.89</v>
       </c>
     </row>
@@ -3740,7 +3863,7 @@
         <v>8.24</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.24</v>
       </c>
     </row>
@@ -3752,7 +3875,7 @@
         <v>2.84</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.84</v>
       </c>
     </row>
@@ -3764,7 +3887,7 @@
         <v>1.04</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
     </row>
@@ -3776,7 +3899,7 @@
         <v>2.31</v>
       </c>
       <c r="D130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.31</v>
       </c>
     </row>
@@ -3788,7 +3911,7 @@
         <v>3.19</v>
       </c>
       <c r="D131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.19</v>
       </c>
     </row>
@@ -3803,7 +3926,7 @@
         <v>1.45</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5899999999999999</v>
       </c>
     </row>
@@ -3818,7 +3941,7 @@
         <v>0.97</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.45</v>
       </c>
     </row>
@@ -3830,7 +3953,7 @@
         <v>5.62</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.62</v>
       </c>
     </row>
@@ -3842,7 +3965,7 @@
         <v>0.25</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3857,7 +3980,7 @@
         <v>0.59</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.48</v>
       </c>
     </row>
@@ -3869,7 +3992,7 @@
         <v>1.4</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
     </row>
@@ -3881,7 +4004,7 @@
         <v>1.69</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.69</v>
       </c>
     </row>
@@ -3893,7 +4016,7 @@
         <v>1.02</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.02</v>
       </c>
     </row>
@@ -3905,7 +4028,7 @@
         <v>4.33</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.33</v>
       </c>
     </row>
@@ -3917,7 +4040,7 @@
         <v>5.55</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.55</v>
       </c>
     </row>
@@ -3932,7 +4055,7 @@
         <v>1.36</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.09</v>
       </c>
     </row>
@@ -3947,7 +4070,7 @@
         <v>1.07</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7199999999999998</v>
       </c>
     </row>
@@ -3959,7 +4082,7 @@
         <v>1.56</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.56</v>
       </c>
     </row>
@@ -3971,7 +4094,7 @@
         <v>3.56</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.56</v>
       </c>
     </row>
@@ -3983,7 +4106,7 @@
         <v>7.29</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.29</v>
       </c>
     </row>
@@ -3995,7 +4118,7 @@
         <v>7.26</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.26</v>
       </c>
     </row>
@@ -4007,7 +4130,7 @@
         <v>0.7</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
     </row>
@@ -4019,7 +4142,7 @@
         <v>2.56</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.56</v>
       </c>
     </row>
@@ -4031,7 +4154,7 @@
         <v>5.34</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.34</v>
       </c>
     </row>
@@ -4043,7 +4166,7 @@
         <v>0.19</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19</v>
       </c>
     </row>
@@ -4055,7 +4178,7 @@
         <v>0.66</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66</v>
       </c>
     </row>
@@ -4067,7 +4190,7 @@
         <v>1.03</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.03</v>
       </c>
     </row>
@@ -4079,7 +4202,7 @@
         <v>0.74</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
     </row>
@@ -4091,7 +4214,7 @@
         <v>1.07</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.07</v>
       </c>
     </row>
@@ -4103,7 +4226,7 @@
         <v>1.47</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.47</v>
       </c>
     </row>
@@ -4115,7 +4238,7 @@
         <v>0.98</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
     </row>
@@ -4127,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4139,7 +4262,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4154,7 +4277,7 @@
         <v>0.16</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.62</v>
       </c>
     </row>
@@ -4166,7 +4289,7 @@
         <v>0.33</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
     </row>
@@ -4178,7 +4301,7 @@
         <v>1.53</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.53</v>
       </c>
     </row>
@@ -4193,7 +4316,7 @@
         <v>2.87</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.52</v>
       </c>
     </row>
@@ -4208,7 +4331,7 @@
         <v>0.61</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.49</v>
       </c>
     </row>
@@ -4220,7 +4343,7 @@
         <v>3.31</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.31</v>
       </c>
     </row>
@@ -4232,7 +4355,7 @@
         <v>5.88</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.88</v>
       </c>
     </row>
@@ -4247,7 +4370,7 @@
         <v>3.59</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9499999999999993</v>
       </c>
     </row>
@@ -4259,7 +4382,7 @@
         <v>2.12</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.12</v>
       </c>
     </row>
@@ -4271,7 +4394,7 @@
         <v>1.72</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.72</v>
       </c>
     </row>
@@ -4283,7 +4406,7 @@
         <v>2.97</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
     </row>
@@ -4295,7 +4418,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1399999999999999</v>
       </c>
     </row>
@@ -4310,7 +4433,7 @@
         <v>3.77</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6899999999999995</v>
       </c>
     </row>
@@ -4322,7 +4445,7 @@
         <v>1.82</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.82</v>
       </c>
     </row>
@@ -4334,7 +4457,7 @@
         <v>6.75</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
     </row>
@@ -4346,7 +4469,7 @@
         <v>5.05</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
     </row>
@@ -4358,7 +4481,7 @@
         <v>0.61</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
     </row>
@@ -4370,7 +4493,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1199999999999992</v>
       </c>
     </row>
@@ -4382,7 +4505,7 @@
         <v>3.49</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.49</v>
       </c>
     </row>
@@ -4394,7 +4517,7 @@
         <v>1.57</v>
       </c>
       <c r="D179">
-        <f t="shared" ref="D179:D242" si="3" xml:space="preserve"> B179 + C179</f>
+        <f t="shared" ref="D179:D242" si="4" xml:space="preserve"> B179 + C179</f>
         <v>1.57</v>
       </c>
     </row>
@@ -4406,7 +4529,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="D180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4700000000000002</v>
       </c>
     </row>
@@ -4418,7 +4541,7 @@
         <v>2.9</v>
       </c>
       <c r="D181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
     </row>
@@ -4430,7 +4553,7 @@
         <v>2.62</v>
       </c>
       <c r="D182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.62</v>
       </c>
     </row>
@@ -4442,7 +4565,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="D183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2699999999999996</v>
       </c>
     </row>
@@ -4457,7 +4580,7 @@
         <v>4.66</v>
       </c>
       <c r="D184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0500000000000007</v>
       </c>
     </row>
@@ -4472,7 +4595,7 @@
         <v>1.7</v>
       </c>
       <c r="D185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -4484,7 +4607,7 @@
         <v>0.73</v>
       </c>
       <c r="D186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73</v>
       </c>
     </row>
@@ -4496,7 +4619,7 @@
         <v>0.38</v>
       </c>
       <c r="D187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38</v>
       </c>
     </row>
@@ -4508,7 +4631,7 @@
         <v>3.23</v>
       </c>
       <c r="D188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.23</v>
       </c>
     </row>
@@ -4523,7 +4646,7 @@
         <v>0.82</v>
       </c>
       <c r="D189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.33</v>
       </c>
     </row>
@@ -4535,7 +4658,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="D190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -4547,7 +4670,7 @@
         <v>1.23</v>
       </c>
       <c r="D191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.23</v>
       </c>
     </row>
@@ -4559,7 +4682,7 @@
         <v>3.56</v>
       </c>
       <c r="D192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.56</v>
       </c>
     </row>
@@ -4571,7 +4694,7 @@
         <v>8.33</v>
       </c>
       <c r="D193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.33</v>
       </c>
     </row>
@@ -4586,7 +4709,7 @@
         <v>0.89</v>
       </c>
       <c r="D194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1599999999999993</v>
       </c>
     </row>
@@ -4598,7 +4721,7 @@
         <v>8.91</v>
       </c>
       <c r="D195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.91</v>
       </c>
     </row>
@@ -4613,7 +4736,7 @@
         <v>6.49</v>
       </c>
       <c r="D196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.59</v>
       </c>
     </row>
@@ -4628,7 +4751,7 @@
         <v>0.93</v>
       </c>
       <c r="D197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.73</v>
       </c>
     </row>
@@ -4640,7 +4763,7 @@
         <v>0.34</v>
       </c>
       <c r="D198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
     </row>
@@ -4655,7 +4778,7 @@
         <v>5.71</v>
       </c>
       <c r="D199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.98</v>
       </c>
     </row>
@@ -4667,7 +4790,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="D200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -4682,7 +4805,7 @@
         <v>0.74</v>
       </c>
       <c r="D201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.67</v>
       </c>
     </row>
@@ -4694,7 +4817,7 @@
         <v>1.32</v>
       </c>
       <c r="D202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.32</v>
       </c>
     </row>
@@ -4709,7 +4832,7 @@
         <v>2.1</v>
       </c>
       <c r="D203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.63</v>
       </c>
     </row>
@@ -4724,7 +4847,7 @@
         <v>6.07</v>
       </c>
       <c r="D204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.76</v>
       </c>
     </row>
@@ -4739,7 +4862,7 @@
         <v>4.07</v>
       </c>
       <c r="D205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
     </row>
@@ -4751,7 +4874,7 @@
         <v>3.72</v>
       </c>
       <c r="D206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.72</v>
       </c>
     </row>
@@ -4763,7 +4886,7 @@
         <v>2.85</v>
       </c>
       <c r="D207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.85</v>
       </c>
     </row>
@@ -4775,7 +4898,7 @@
         <v>0.44</v>
       </c>
       <c r="D208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.44</v>
       </c>
     </row>
@@ -4787,7 +4910,7 @@
         <v>1.2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -4799,7 +4922,7 @@
         <v>3.24</v>
       </c>
       <c r="D210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.24</v>
       </c>
     </row>
@@ -4811,7 +4934,7 @@
         <v>5.05</v>
       </c>
       <c r="D211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.05</v>
       </c>
     </row>
@@ -4823,7 +4946,7 @@
         <v>3.27</v>
       </c>
       <c r="D212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.27</v>
       </c>
     </row>
@@ -4838,7 +4961,7 @@
         <v>4.63</v>
       </c>
       <c r="D213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1</v>
       </c>
     </row>
@@ -4853,7 +4976,7 @@
         <v>4.21</v>
       </c>
       <c r="D214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.43</v>
       </c>
     </row>
@@ -4865,7 +4988,7 @@
         <v>1.91</v>
       </c>
       <c r="D215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.91</v>
       </c>
     </row>
@@ -4877,7 +5000,7 @@
         <v>2.52</v>
       </c>
       <c r="D216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.52</v>
       </c>
     </row>
@@ -4892,7 +5015,7 @@
         <v>4.38</v>
       </c>
       <c r="D217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.35</v>
       </c>
     </row>
@@ -4907,7 +5030,7 @@
         <v>3.23</v>
       </c>
       <c r="D218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.66</v>
       </c>
     </row>
@@ -4922,7 +5045,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2299999999999995</v>
       </c>
     </row>
@@ -4934,7 +5057,7 @@
         <v>1.08</v>
       </c>
       <c r="D220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
     </row>
@@ -4949,7 +5072,7 @@
         <v>1.94</v>
       </c>
       <c r="D221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.24</v>
       </c>
     </row>
@@ -4964,7 +5087,7 @@
         <v>3.81</v>
       </c>
       <c r="D222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8100000000000005</v>
       </c>
     </row>
@@ -4976,7 +5099,7 @@
         <v>1.56</v>
       </c>
       <c r="D223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.56</v>
       </c>
     </row>
@@ -4991,7 +5114,7 @@
         <v>3.9</v>
       </c>
       <c r="D224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -5006,7 +5129,7 @@
         <v>0.81</v>
       </c>
       <c r="D225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.82</v>
       </c>
     </row>
@@ -5018,7 +5141,7 @@
         <v>5.56</v>
       </c>
       <c r="D226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.56</v>
       </c>
     </row>
@@ -5030,7 +5153,7 @@
         <v>2.76</v>
       </c>
       <c r="D227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.76</v>
       </c>
     </row>
@@ -5042,7 +5165,7 @@
         <v>4.72</v>
       </c>
       <c r="D228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.72</v>
       </c>
     </row>
@@ -5054,7 +5177,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -5066,7 +5189,7 @@
         <v>2.02</v>
       </c>
       <c r="D230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.02</v>
       </c>
     </row>
@@ -5078,7 +5201,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="D231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4700000000000002</v>
       </c>
     </row>
@@ -5090,7 +5213,7 @@
         <v>13.64</v>
       </c>
       <c r="D232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.64</v>
       </c>
     </row>
@@ -5102,7 +5225,7 @@
         <v>6.65</v>
       </c>
       <c r="D233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.65</v>
       </c>
     </row>
@@ -5117,7 +5240,7 @@
         <v>3.39</v>
       </c>
       <c r="D234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.98</v>
       </c>
     </row>
@@ -5132,7 +5255,7 @@
         <v>6.49</v>
       </c>
       <c r="D235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.04</v>
       </c>
     </row>
@@ -5144,7 +5267,7 @@
         <v>4.47</v>
       </c>
       <c r="D236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.47</v>
       </c>
     </row>
@@ -5156,7 +5279,7 @@
         <v>15.69</v>
       </c>
       <c r="D237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.69</v>
       </c>
     </row>
@@ -5171,7 +5294,7 @@
         <v>0.24</v>
       </c>
       <c r="D238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9700000000000006</v>
       </c>
     </row>
@@ -5183,7 +5306,7 @@
         <v>1.37</v>
       </c>
       <c r="D239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.37</v>
       </c>
     </row>
@@ -5195,7 +5318,7 @@
         <v>6.46</v>
       </c>
       <c r="D240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.46</v>
       </c>
     </row>
@@ -5207,7 +5330,7 @@
         <v>1.34</v>
       </c>
       <c r="D241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.34</v>
       </c>
     </row>
@@ -5219,7 +5342,7 @@
         <v>10.16</v>
       </c>
       <c r="D242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.16</v>
       </c>
     </row>
@@ -5231,7 +5354,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D243">
-        <f t="shared" ref="D243:D279" si="4" xml:space="preserve"> B243 + C243</f>
+        <f t="shared" ref="D243:D306" si="5" xml:space="preserve"> B243 + C243</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -5246,7 +5369,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.67</v>
       </c>
     </row>
@@ -5258,7 +5381,7 @@
         <v>9.02</v>
       </c>
       <c r="D245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.02</v>
       </c>
     </row>
@@ -5270,7 +5393,7 @@
         <v>5.22</v>
       </c>
       <c r="D246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.22</v>
       </c>
     </row>
@@ -5282,7 +5405,7 @@
         <v>3.56</v>
       </c>
       <c r="D247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.56</v>
       </c>
     </row>
@@ -5294,7 +5417,7 @@
         <v>0.36</v>
       </c>
       <c r="D248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
     </row>
@@ -5306,7 +5429,7 @@
         <v>1.95</v>
       </c>
       <c r="D249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.95</v>
       </c>
     </row>
@@ -5321,7 +5444,7 @@
         <v>2.56</v>
       </c>
       <c r="D250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.26</v>
       </c>
     </row>
@@ -5333,7 +5456,7 @@
         <v>0.21</v>
       </c>
       <c r="D251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21</v>
       </c>
     </row>
@@ -5345,7 +5468,7 @@
         <v>0.79</v>
       </c>
       <c r="D252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79</v>
       </c>
     </row>
@@ -5357,7 +5480,7 @@
         <v>1.97</v>
       </c>
       <c r="D253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.97</v>
       </c>
     </row>
@@ -5372,7 +5495,7 @@
         <v>1.01</v>
       </c>
       <c r="D254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.41</v>
       </c>
     </row>
@@ -5384,7 +5507,7 @@
         <v>7.81</v>
       </c>
       <c r="D255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.81</v>
       </c>
     </row>
@@ -5396,7 +5519,7 @@
         <v>2.64</v>
       </c>
       <c r="D256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.64</v>
       </c>
     </row>
@@ -5411,7 +5534,7 @@
         <v>0.2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.97</v>
       </c>
     </row>
@@ -5423,7 +5546,7 @@
         <v>1.82</v>
       </c>
       <c r="D258">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.82</v>
       </c>
     </row>
@@ -5435,7 +5558,7 @@
         <v>1.01</v>
       </c>
       <c r="D259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
     </row>
@@ -5450,7 +5573,7 @@
         <v>1.3</v>
       </c>
       <c r="D260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0300000000000002</v>
       </c>
     </row>
@@ -5465,7 +5588,7 @@
         <v>5.3</v>
       </c>
       <c r="D261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.99</v>
       </c>
     </row>
@@ -5477,7 +5600,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="D262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -5489,7 +5612,7 @@
         <v>0.48</v>
       </c>
       <c r="D263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48</v>
       </c>
     </row>
@@ -5501,7 +5624,7 @@
         <v>0.87</v>
       </c>
       <c r="D264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
     </row>
@@ -5513,7 +5636,7 @@
         <v>1.3</v>
       </c>
       <c r="D265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
     </row>
@@ -5525,7 +5648,7 @@
         <v>5.28</v>
       </c>
       <c r="D266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
     </row>
@@ -5540,7 +5663,7 @@
         <v>1.84</v>
       </c>
       <c r="D267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.18</v>
       </c>
     </row>
@@ -5555,7 +5678,7 @@
         <v>4.91</v>
       </c>
       <c r="D268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.42</v>
       </c>
     </row>
@@ -5570,7 +5693,7 @@
         <v>2.85</v>
       </c>
       <c r="D269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -5582,7 +5705,7 @@
         <v>5.69</v>
       </c>
       <c r="D270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.69</v>
       </c>
     </row>
@@ -5594,7 +5717,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="D271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1300000000000008</v>
       </c>
     </row>
@@ -5606,7 +5729,7 @@
         <v>8.26</v>
       </c>
       <c r="D272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.26</v>
       </c>
     </row>
@@ -5621,7 +5744,7 @@
         <v>1.06</v>
       </c>
       <c r="D273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9900000000000002</v>
       </c>
     </row>
@@ -5636,7 +5759,7 @@
         <v>2.41</v>
       </c>
       <c r="D274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.64</v>
       </c>
     </row>
@@ -5651,7 +5774,7 @@
         <v>0.34</v>
       </c>
       <c r="D275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8</v>
       </c>
     </row>
@@ -5666,7 +5789,7 @@
         <v>2.31</v>
       </c>
       <c r="D276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.45</v>
       </c>
     </row>
@@ -5678,7 +5801,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="F277" t="s">
@@ -5686,7 +5809,7 @@
       </c>
       <c r="G277">
         <f>SUM(B:B)</f>
-        <v>1886.7500000000014</v>
+        <v>2058.9600000000014</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -5697,7 +5820,7 @@
         <v>3.74</v>
       </c>
       <c r="D278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.74</v>
       </c>
       <c r="F278" t="s">
@@ -5719,7 +5842,7 @@
         <v>3.36</v>
       </c>
       <c r="D279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.57</v>
       </c>
       <c r="F279" t="s">
@@ -5727,86 +5850,698 @@
       </c>
       <c r="G279">
         <f>SUM(G277:G278)</f>
-        <v>2123.3100000000013</v>
+        <v>2295.5200000000013</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>43655</v>
+      </c>
+      <c r="B280">
+        <v>6.13</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="5"/>
+        <v>6.13</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>43656</v>
+      </c>
+      <c r="B281">
+        <v>2.09</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="5"/>
+        <v>2.09</v>
+      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>43657</v>
+      </c>
+      <c r="B282">
+        <v>1.84</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="5"/>
+        <v>1.84</v>
+      </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>43658</v>
+      </c>
+      <c r="B283">
+        <v>1.18</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="5"/>
+        <v>1.18</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>43659</v>
+      </c>
+      <c r="B284">
+        <v>8.15</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="5"/>
+        <v>8.15</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B285">
+        <v>9.35</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="5"/>
+        <v>9.35</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>43661</v>
+      </c>
+      <c r="B286">
+        <v>2.89</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="5"/>
+        <v>2.89</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>43662</v>
+      </c>
+      <c r="B287">
+        <v>0.81</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
+      <c r="A288" s="1">
+        <v>43663</v>
+      </c>
+      <c r="B288">
+        <v>1.67</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="5"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B289">
+        <v>5.24</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="5"/>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>43665</v>
+      </c>
+      <c r="B290">
+        <v>1.37</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="5"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>43666</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B292">
+        <v>5.22</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="5"/>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>43668</v>
+      </c>
+      <c r="B293">
+        <v>3.97</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="5"/>
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>43669</v>
+      </c>
+      <c r="B294">
+        <v>7.24</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="5"/>
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>43670</v>
+      </c>
+      <c r="B295">
+        <v>4.5</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>43671</v>
+      </c>
+      <c r="B296">
+        <v>1.62</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="5"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B297">
+        <v>1.26</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="5"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>43673</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B299">
+        <v>8.68</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="5"/>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>43675</v>
+      </c>
+      <c r="B300">
+        <v>7.12</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="5"/>
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>43676</v>
+      </c>
+      <c r="B301">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="5"/>
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B302">
+        <v>7.57</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="5"/>
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B303">
+        <v>7.37</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="5"/>
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>43679</v>
+      </c>
+      <c r="B304">
+        <v>1.36</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="5"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>43680</v>
+      </c>
+      <c r="B305">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="5"/>
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B306">
+        <v>2.19</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="5"/>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>43682</v>
+      </c>
+      <c r="B307">
+        <v>5.71</v>
+      </c>
+      <c r="D307">
+        <f t="shared" ref="D307:D330" si="6" xml:space="preserve"> B307 + C307</f>
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>43683</v>
+      </c>
+      <c r="B308">
+        <v>2.67</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>43684</v>
+      </c>
+      <c r="B309">
+        <v>9.82</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="6"/>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>43685</v>
+      </c>
+      <c r="B310">
+        <v>3.04</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="6"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B311">
+        <v>3.86</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="6"/>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>43687</v>
+      </c>
+      <c r="B312">
+        <v>10.8</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="6"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>43688</v>
+      </c>
+      <c r="B313">
+        <v>6.3</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="6"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>43689</v>
+      </c>
+      <c r="B314">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>43690</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>43691</v>
+      </c>
+      <c r="B316">
+        <v>3.97</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="6"/>
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>43692</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B318">
+        <v>1.42</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="6"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>43694</v>
+      </c>
+      <c r="B319">
+        <v>5.8</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="6"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>43695</v>
+      </c>
+      <c r="B320">
+        <v>1.34</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="6"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>43737</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EEDE1B-81F4-4DC4-ACED-EAC395F44D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963AE57-3179-4853-AF73-72532C9522BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,10 +1064,10 @@
                   <c:v>7.57</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>6.13</c:v>
+                  <c:v>6.82</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2.09</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>1.84</c:v>
@@ -1085,25 +1085,25 @@
                   <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.81</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="285">
                   <c:v>1.67</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>5.24</c:v>
+                  <c:v>9.43</c:v>
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>5.22</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>3.97</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>7.24</c:v>
@@ -1112,7 +1112,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.62</c:v>
+                  <c:v>3.31</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>1.26</c:v>
@@ -1124,22 +1124,22 @@
                   <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>7.12</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>7.57</c:v>
+                  <c:v>11.629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>7.37</c:v>
+                  <c:v>8.32</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.36</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>4.8099999999999996</c:v>
+                  <c:v>5.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2.19</c:v>
@@ -1148,16 +1148,16 @@
                   <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>2.67</c:v>
+                  <c:v>5.58</c:v>
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>9.82</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>3.04</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>3.86</c:v>
+                  <c:v>6.91</c:v>
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>10.8</c:v>
@@ -1166,7 +1166,7 @@
                   <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>8.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>0</c:v>
@@ -1178,7 +1178,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.42</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>5.8</c:v>
@@ -2244,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="H271" sqref="H271"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2058.9600000000014</v>
+        <v>2060.0100000000016</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>236.56000000000003</v>
+        <v>271.01000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2295.5200000000013</v>
+        <v>2331.0200000000018</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G277">
         <f>SUM(B:B)</f>
-        <v>2058.9600000000014</v>
+        <v>2060.0100000000016</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="G278">
         <f>SUM(C:C)</f>
-        <v>236.56000000000003</v>
+        <v>271.01000000000005</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G279">
         <f>SUM(G277:G278)</f>
-        <v>2295.5200000000013</v>
+        <v>2331.0200000000018</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -5860,9 +5860,12 @@
       <c r="B280">
         <v>6.13</v>
       </c>
+      <c r="C280">
+        <v>0.69</v>
+      </c>
       <c r="D280">
         <f t="shared" si="5"/>
-        <v>6.13</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -5872,9 +5875,12 @@
       <c r="B281">
         <v>2.09</v>
       </c>
+      <c r="C281">
+        <v>0.73</v>
+      </c>
       <c r="D281">
         <f t="shared" si="5"/>
-        <v>2.09</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -5944,9 +5950,12 @@
       <c r="B287">
         <v>0.81</v>
       </c>
+      <c r="C287">
+        <v>0.89</v>
+      </c>
       <c r="D287">
         <f t="shared" si="5"/>
-        <v>0.81</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -5968,9 +5977,12 @@
       <c r="B289">
         <v>5.24</v>
       </c>
+      <c r="C289">
+        <v>4.1900000000000004</v>
+      </c>
       <c r="D289">
         <f t="shared" si="5"/>
-        <v>5.24</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5989,9 +6001,12 @@
       <c r="A291" s="1">
         <v>43666</v>
       </c>
+      <c r="C291">
+        <v>1.29</v>
+      </c>
       <c r="D291">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,9 +6028,12 @@
       <c r="B293">
         <v>3.97</v>
       </c>
+      <c r="C293">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="D293">
         <f t="shared" si="5"/>
-        <v>3.97</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6049,9 +6067,12 @@
       <c r="B296">
         <v>1.62</v>
       </c>
+      <c r="C296">
+        <v>1.69</v>
+      </c>
       <c r="D296">
         <f t="shared" si="5"/>
-        <v>1.62</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,9 +6115,12 @@
       <c r="B300">
         <v>7.12</v>
       </c>
+      <c r="C300">
+        <v>2.95</v>
+      </c>
       <c r="D300">
         <f t="shared" si="5"/>
-        <v>7.12</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,9 +6142,12 @@
       <c r="B302">
         <v>7.57</v>
       </c>
+      <c r="C302">
+        <v>4.0599999999999996</v>
+      </c>
       <c r="D302">
         <f t="shared" si="5"/>
-        <v>7.57</v>
+        <v>11.629999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,9 +6157,12 @@
       <c r="B303">
         <v>7.37</v>
       </c>
+      <c r="C303">
+        <v>0.95</v>
+      </c>
       <c r="D303">
         <f t="shared" si="5"/>
-        <v>7.37</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,9 +6172,12 @@
       <c r="B304">
         <v>1.36</v>
       </c>
+      <c r="C304">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="D304">
         <f t="shared" si="5"/>
-        <v>1.36</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,9 +6187,12 @@
       <c r="B305">
         <v>4.8099999999999996</v>
       </c>
+      <c r="C305">
+        <v>0.47</v>
+      </c>
       <c r="D305">
         <f t="shared" si="5"/>
-        <v>4.8099999999999996</v>
+        <v>5.2799999999999994</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6179,7 +6215,7 @@
         <v>5.71</v>
       </c>
       <c r="D307">
-        <f t="shared" ref="D307:D330" si="6" xml:space="preserve"> B307 + C307</f>
+        <f t="shared" ref="D307:D320" si="6" xml:space="preserve"> B307 + C307</f>
         <v>5.71</v>
       </c>
     </row>
@@ -6190,9 +6226,12 @@
       <c r="B308">
         <v>2.67</v>
       </c>
+      <c r="C308">
+        <v>2.91</v>
+      </c>
       <c r="D308">
         <f t="shared" si="6"/>
-        <v>2.67</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,9 +6253,12 @@
       <c r="B310">
         <v>3.04</v>
       </c>
+      <c r="C310">
+        <v>2.69</v>
+      </c>
       <c r="D310">
         <f t="shared" si="6"/>
-        <v>3.04</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6226,9 +6268,12 @@
       <c r="B311">
         <v>3.86</v>
       </c>
+      <c r="C311">
+        <v>3.05</v>
+      </c>
       <c r="D311">
         <f t="shared" si="6"/>
-        <v>3.86</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6262,9 +6307,12 @@
       <c r="B314">
         <v>4.4000000000000004</v>
       </c>
+      <c r="C314">
+        <v>3.98</v>
+      </c>
       <c r="D314">
         <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6304,9 +6352,12 @@
       <c r="B318">
         <v>1.42</v>
       </c>
+      <c r="C318">
+        <v>0.48</v>
+      </c>
       <c r="D318">
         <f t="shared" si="6"/>
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6333,82 +6384,85 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>43696</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>43697</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>43698</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>43699</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>43700</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>43701</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>43702</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>43703</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>43704</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>43705</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>43706</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>43707</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>43708</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>43710</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>43711</v>
       </c>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963AE57-3179-4853-AF73-72532C9522BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E22EB-49C1-4AAE-BDF3-E76448A24CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="1830" windowWidth="17550" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
@@ -2242,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="J279" sqref="J279"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2060.0100000000016</v>
+        <v>2150.7500000000018</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>271.01000000000005</v>
+        <v>306.13000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2331.0200000000018</v>
+        <v>2456.8800000000019</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="G277">
         <f>SUM(B:B)</f>
-        <v>2060.0100000000016</v>
+        <v>2150.7500000000018</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="G278">
         <f>SUM(C:C)</f>
-        <v>271.01000000000005</v>
+        <v>306.13000000000005</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G279">
         <f>SUM(G277:G278)</f>
-        <v>2331.0200000000018</v>
+        <v>2456.8800000000019</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -6416,11 +6416,17 @@
       <c r="A326" s="1">
         <v>43701</v>
       </c>
+      <c r="B326">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>43702</v>
       </c>
+      <c r="B327">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
@@ -6451,6 +6457,9 @@
       <c r="A333" s="1">
         <v>43708</v>
       </c>
+      <c r="B333">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
@@ -6466,135 +6475,451 @@
       <c r="A336" s="1">
         <v>43711</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>43712</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>1.03</v>
+      </c>
+      <c r="C337">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>43713</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43714</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43715</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43716</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43717</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>1.73</v>
+      </c>
+      <c r="C342">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43718</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43719</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>6.34</v>
+      </c>
+      <c r="C344">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43720</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>3.55</v>
+      </c>
+      <c r="C345">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43721</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>1.93</v>
+      </c>
+      <c r="C346">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>43722</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>43723</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>43724</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>43725</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>43726</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>43727</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>43728</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>43729</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>43730</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>43731</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>43732</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>43733</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>43734</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>43736</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>43737</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B363">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B364">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B365">
+        <v>3.88</v>
+      </c>
+      <c r="C365">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B366">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B367">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C367">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B368">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B369">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>43751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>43757</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>43759</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>43764</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>43781</v>
       </c>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E22EB-49C1-4AAE-BDF3-E76448A24CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA86EAEE-5583-41B8-9AF6-075D84E513C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="1830" windowWidth="17550" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -228,10 +230,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>小时!$D$3:$D$321</c:f>
+              <c:f>小时!$D$3:$D$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
                 </c:pt>
@@ -1118,72 +1120,63 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>8.68</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10.07</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>11.629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11.629999999999999</c:v>
+                  <c:v>8.32</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>8.32</c:v>
+                  <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>5.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>5.2799999999999994</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>2.19</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>5.71</c:v>
+                  <c:v>5.58</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>5.58</c:v>
+                  <c:v>9.82</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>9.82</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>5.73</c:v>
+                  <c:v>6.91</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>6.91</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>10.8</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>6.3</c:v>
+                  <c:v>8.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>8.3800000000000008</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>3.97</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="317">
                   <c:v>1.34</c:v>
                 </c:pt>
               </c:numCache>
@@ -2242,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I406"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2264,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2150.7500000000018</v>
+        <v>2240.7100000000019</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2290,7 +2283,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>306.13000000000005</v>
+        <v>347.81000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2309,7 +2302,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2456.8800000000019</v>
+        <v>2588.5200000000018</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2347,10 +2340,9 @@
         <f t="shared" si="0"/>
         <v>1.83</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5354,7 +5346,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D243">
-        <f t="shared" ref="D243:D306" si="5" xml:space="preserve"> B243 + C243</f>
+        <f t="shared" ref="D243:D305" si="5" xml:space="preserve"> B243 + C243</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -5809,7 +5801,7 @@
       </c>
       <c r="G277">
         <f>SUM(B:B)</f>
-        <v>2150.7500000000018</v>
+        <v>2240.7100000000019</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,7 +5820,7 @@
       </c>
       <c r="G278">
         <f>SUM(C:C)</f>
-        <v>306.13000000000005</v>
+        <v>347.81000000000006</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -5850,7 +5842,7 @@
       </c>
       <c r="G279">
         <f>SUM(G277:G278)</f>
-        <v>2456.8800000000019</v>
+        <v>2588.5200000000018</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,838 +6081,1329 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>43673</v>
+        <v>43674</v>
+      </c>
+      <c r="B298">
+        <v>8.68</v>
       </c>
       <c r="D298">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>43674</v>
+        <v>43675</v>
       </c>
       <c r="B299">
-        <v>8.68</v>
+        <v>7.12</v>
+      </c>
+      <c r="C299">
+        <v>2.95</v>
       </c>
       <c r="D299">
         <f t="shared" si="5"/>
-        <v>8.68</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>43675</v>
+        <v>43676</v>
       </c>
       <c r="B300">
-        <v>7.12</v>
-      </c>
-      <c r="C300">
-        <v>2.95</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D300">
         <f t="shared" si="5"/>
-        <v>10.07</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="B301">
-        <v>9.4499999999999993</v>
+        <v>7.57</v>
+      </c>
+      <c r="C301">
+        <v>4.0599999999999996</v>
       </c>
       <c r="D301">
         <f t="shared" si="5"/>
-        <v>9.4499999999999993</v>
+        <v>11.629999999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>43677</v>
+        <v>43678</v>
       </c>
       <c r="B302">
-        <v>7.57</v>
+        <v>7.37</v>
       </c>
       <c r="C302">
-        <v>4.0599999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="D302">
         <f t="shared" si="5"/>
-        <v>11.629999999999999</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="B303">
-        <v>7.37</v>
+        <v>1.36</v>
       </c>
       <c r="C303">
-        <v>0.95</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D303">
         <f t="shared" si="5"/>
-        <v>8.32</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>43679</v>
+        <v>43680</v>
       </c>
       <c r="B304">
-        <v>1.36</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C304">
-        <v>1.1499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="D304">
         <f t="shared" si="5"/>
-        <v>2.5099999999999998</v>
+        <v>5.2799999999999994</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>43680</v>
+        <v>43681</v>
       </c>
       <c r="B305">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="C305">
-        <v>0.47</v>
+        <v>2.19</v>
       </c>
       <c r="D305">
         <f t="shared" si="5"/>
-        <v>5.2799999999999994</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>43681</v>
+        <v>43682</v>
       </c>
       <c r="B306">
-        <v>2.19</v>
+        <v>5.71</v>
       </c>
       <c r="D306">
-        <f t="shared" si="5"/>
-        <v>2.19</v>
+        <f t="shared" ref="D306:D347" si="6" xml:space="preserve"> B306 + C306</f>
+        <v>5.71</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="B307">
-        <v>5.71</v>
+        <v>2.67</v>
+      </c>
+      <c r="C307">
+        <v>2.91</v>
       </c>
       <c r="D307">
-        <f t="shared" ref="D307:D320" si="6" xml:space="preserve"> B307 + C307</f>
-        <v>5.71</v>
+        <f t="shared" si="6"/>
+        <v>5.58</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="B308">
-        <v>2.67</v>
-      </c>
-      <c r="C308">
-        <v>2.91</v>
+        <v>9.82</v>
       </c>
       <c r="D308">
         <f t="shared" si="6"/>
-        <v>5.58</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="B309">
-        <v>9.82</v>
+        <v>3.04</v>
+      </c>
+      <c r="C309">
+        <v>2.69</v>
       </c>
       <c r="D309">
         <f t="shared" si="6"/>
-        <v>9.82</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="B310">
-        <v>3.04</v>
+        <v>3.86</v>
       </c>
       <c r="C310">
-        <v>2.69</v>
+        <v>3.05</v>
       </c>
       <c r="D310">
         <f t="shared" si="6"/>
-        <v>5.73</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>43686</v>
+        <v>43687</v>
       </c>
       <c r="B311">
-        <v>3.86</v>
-      </c>
-      <c r="C311">
-        <v>3.05</v>
+        <v>10.8</v>
       </c>
       <c r="D311">
         <f t="shared" si="6"/>
-        <v>6.91</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>43687</v>
+        <v>43688</v>
       </c>
       <c r="B312">
-        <v>10.8</v>
+        <v>6.3</v>
       </c>
       <c r="D312">
         <f t="shared" si="6"/>
-        <v>10.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>43688</v>
+        <v>43689</v>
       </c>
       <c r="B313">
-        <v>6.3</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C313">
+        <v>3.98</v>
       </c>
       <c r="D313">
         <f t="shared" si="6"/>
-        <v>6.3</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>43689</v>
+        <v>43691</v>
       </c>
       <c r="B314">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C314">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="D314">
         <f t="shared" si="6"/>
-        <v>8.3800000000000008</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>43690</v>
+        <v>43693</v>
+      </c>
+      <c r="B315">
+        <v>1.42</v>
+      </c>
+      <c r="C315">
+        <v>0.48</v>
       </c>
       <c r="D315">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>43691</v>
+        <v>43694</v>
       </c>
       <c r="B316">
-        <v>3.97</v>
+        <v>5.8</v>
       </c>
       <c r="D316">
         <f t="shared" si="6"/>
-        <v>3.97</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>43692</v>
+        <v>43695</v>
+      </c>
+      <c r="B317">
+        <v>1.34</v>
       </c>
       <c r="D317">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>43693</v>
+        <v>43697</v>
       </c>
       <c r="B318">
-        <v>1.42</v>
-      </c>
-      <c r="C318">
-        <v>0.48</v>
+        <v>1.05</v>
       </c>
       <c r="D318">
         <f t="shared" si="6"/>
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>43694</v>
+        <v>43701</v>
       </c>
       <c r="B319">
-        <v>5.8</v>
+        <v>2.15</v>
       </c>
       <c r="D319">
         <f t="shared" si="6"/>
-        <v>5.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>43695</v>
+        <v>43702</v>
       </c>
       <c r="B320">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="D320">
         <f t="shared" si="6"/>
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>43696</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43708</v>
+      </c>
+      <c r="B321">
+        <v>2.06</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="6"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>43697</v>
+        <v>43711</v>
       </c>
       <c r="B322">
+        <v>3.02</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="6"/>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>43712</v>
+      </c>
+      <c r="B323">
+        <v>1.03</v>
+      </c>
+      <c r="C323">
+        <v>1.3</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="6"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>43713</v>
+      </c>
+      <c r="B324">
+        <v>1.97</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="6"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B325">
+        <v>0.27</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="6"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>43715</v>
+      </c>
+      <c r="B326">
+        <v>0.35</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>43716</v>
+      </c>
+      <c r="C327">
+        <v>0.83</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="6"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>43717</v>
+      </c>
+      <c r="B328">
+        <v>1.73</v>
+      </c>
+      <c r="C328">
+        <v>4.99</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="6"/>
+        <v>6.7200000000000006</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>43718</v>
+      </c>
+      <c r="C329">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>43719</v>
+      </c>
+      <c r="B330">
+        <v>6.34</v>
+      </c>
+      <c r="C330">
+        <v>1.94</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="6"/>
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B331">
+        <v>3.55</v>
+      </c>
+      <c r="C331">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="6"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>43721</v>
+      </c>
+      <c r="B332">
+        <v>1.93</v>
+      </c>
+      <c r="C332">
+        <v>5.35</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="6"/>
+        <v>7.2799999999999994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B333">
+        <v>9.68</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="6"/>
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>43723</v>
+      </c>
+      <c r="B334">
+        <v>8.68</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="6"/>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>43724</v>
+      </c>
+      <c r="C335">
+        <v>1.22</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="6"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B336">
+        <v>5.89</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="6"/>
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B337">
+        <v>6.48</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="6"/>
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>43731</v>
+      </c>
+      <c r="B338">
+        <v>1.01</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="6"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>43734</v>
+      </c>
+      <c r="C339">
+        <v>1.95</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="6"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B340">
+        <v>1.18</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="6"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B341">
+        <v>3.59</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="6"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B342">
+        <v>3.88</v>
+      </c>
+      <c r="C342">
+        <v>4.2</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="6"/>
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B343">
+        <v>6.08</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="6"/>
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B344">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C344">
+        <v>6.39</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="6"/>
+        <v>8.6499999999999986</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B345">
+        <v>9.48</v>
+      </c>
+      <c r="C345">
+        <v>0.3</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="6"/>
+        <v>9.7800000000000011</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B346">
+        <v>7.56</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="6"/>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>43745</v>
+      </c>
+      <c r="C347">
+        <v>1.87</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="6"/>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B348">
+        <v>1.65</v>
+      </c>
+      <c r="C348">
+        <v>0.35</v>
+      </c>
+      <c r="D348">
+        <f t="shared" ref="D348:D382" si="7" xml:space="preserve"> B348 + C348</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B349">
+        <v>0.22</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="7"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B350">
+        <v>0.84</v>
+      </c>
+      <c r="C350">
+        <v>0.22</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="7"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B351">
+        <v>0.52</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="7"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B352">
+        <v>0.89</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="7"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B353">
+        <v>1.44</v>
+      </c>
+      <c r="C353">
+        <v>3.38</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="7"/>
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B354">
+        <v>3.02</v>
+      </c>
+      <c r="C354">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="7"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B355">
+        <v>0.59</v>
+      </c>
+      <c r="C355">
+        <v>1.66</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B356">
+        <v>0.27</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>43756</v>
+      </c>
+      <c r="C357">
+        <v>1.55</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="7"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B358">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="7"/>
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>43758</v>
+      </c>
+      <c r="C359">
+        <v>0.26</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="7"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B360">
+        <v>0.82</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="7"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>43762</v>
+      </c>
+      <c r="C361">
+        <v>0.38</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="7"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B362">
+        <v>2.65</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="7"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B363">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>43767</v>
+      </c>
+      <c r="C364">
+        <v>5.21</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="7"/>
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B365">
+        <v>1.03</v>
+      </c>
+      <c r="C365">
+        <v>2.71</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="7"/>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>43769</v>
+      </c>
+      <c r="C366">
+        <v>1.76</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="7"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C367">
+        <v>1.74</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="7"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B368">
+        <v>5.85</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="7"/>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B369">
+        <v>6.73</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="7"/>
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B370">
+        <v>1.8</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B371">
+        <v>3.76</v>
+      </c>
+      <c r="C371">
+        <v>3.97</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="7"/>
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B372">
+        <v>6.46</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="7"/>
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B373">
+        <v>2.88</v>
+      </c>
+      <c r="C373">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
-        <v>43698</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>43699</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
-        <v>43700</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
-        <v>43701</v>
-      </c>
-      <c r="B326">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>43702</v>
-      </c>
-      <c r="B327">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
-        <v>43703</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>43704</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
-        <v>43705</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
-        <v>43706</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
-        <v>43707</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
-        <v>43708</v>
-      </c>
-      <c r="B333">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
-        <v>43709</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
-        <v>43710</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
-        <v>43711</v>
-      </c>
-      <c r="B336">
+      <c r="D373">
+        <f t="shared" si="7"/>
+        <v>3.9299999999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B374">
+        <v>2.52</v>
+      </c>
+      <c r="C374">
+        <v>0.26</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="7"/>
+        <v>2.7800000000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>43784</v>
+      </c>
+      <c r="C375">
+        <v>0.53</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="7"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>43788</v>
+      </c>
+      <c r="C376">
+        <v>1.08</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="7"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>43789</v>
+      </c>
+      <c r="C377">
+        <v>1.01</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="7"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B378">
+        <v>0.96</v>
+      </c>
+      <c r="C378">
+        <v>3.08</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="7"/>
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B379">
+        <v>2.39</v>
+      </c>
+      <c r="C379">
+        <v>0.63</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="7"/>
         <v>3.02</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>43712</v>
-      </c>
-      <c r="B337">
-        <v>1.03</v>
-      </c>
-      <c r="C337">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
-        <v>43713</v>
-      </c>
-      <c r="B338">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
-        <v>43714</v>
-      </c>
-      <c r="B339">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>43715</v>
-      </c>
-      <c r="B340">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>43716</v>
-      </c>
-      <c r="C341">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>43717</v>
-      </c>
-      <c r="B342">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B380">
+        <v>3.73</v>
+      </c>
+      <c r="C380">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="7"/>
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B381">
         <v>1.73</v>
       </c>
-      <c r="C342">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>43718</v>
-      </c>
-      <c r="C343">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>43719</v>
-      </c>
-      <c r="B344">
-        <v>6.34</v>
-      </c>
-      <c r="C344">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>43720</v>
-      </c>
-      <c r="B345">
-        <v>3.55</v>
-      </c>
-      <c r="C345">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>43721</v>
-      </c>
-      <c r="B346">
-        <v>1.93</v>
-      </c>
-      <c r="C346">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>43722</v>
-      </c>
-      <c r="B347">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>43723</v>
-      </c>
-      <c r="B348">
-        <v>8.68</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>43724</v>
-      </c>
-      <c r="C349">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>43725</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>43726</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>43727</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>43728</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>43729</v>
-      </c>
-      <c r="B354">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>43730</v>
-      </c>
-      <c r="B355">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>43731</v>
-      </c>
-      <c r="B356">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>43732</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>43733</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>43734</v>
-      </c>
-      <c r="C359">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>43736</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>43737</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
-        <v>43738</v>
-      </c>
-      <c r="B363">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B364">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
-        <v>43740</v>
-      </c>
-      <c r="B365">
-        <v>3.88</v>
-      </c>
-      <c r="C365">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
-        <v>43741</v>
-      </c>
-      <c r="B366">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
-        <v>43742</v>
-      </c>
-      <c r="B367">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C367">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <v>43743</v>
-      </c>
-      <c r="B368">
-        <v>9.48</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
-        <v>43744</v>
-      </c>
-      <c r="B369">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
-        <v>43746</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
-        <v>43747</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
-        <v>43749</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>43752</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>43753</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>43754</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>43755</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>43756</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <f t="shared" si="7"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>43757</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43809</v>
+      </c>
+      <c r="B382">
+        <v>1.56</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="7"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>43758</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43813</v>
+      </c>
+      <c r="C383">
+        <v>1.39</v>
+      </c>
+      <c r="D383">
+        <f t="shared" ref="D383:D392" si="8" xml:space="preserve"> B383 + C383</f>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>43759</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43818</v>
+      </c>
+      <c r="C384">
+        <v>0.93</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="8"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>43760</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43822</v>
+      </c>
+      <c r="B385">
+        <v>2.48</v>
+      </c>
+      <c r="C385">
+        <v>3.79</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="8"/>
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>43761</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43823</v>
+      </c>
+      <c r="B386">
+        <v>0.81</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="8"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>43762</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43824</v>
+      </c>
+      <c r="B387">
+        <v>1.64</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="8"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>43763</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43825</v>
+      </c>
+      <c r="B388">
+        <v>2.14</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="8"/>
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>43764</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43826</v>
+      </c>
+      <c r="B389">
+        <v>6.32</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="8"/>
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>43765</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43827</v>
+      </c>
+      <c r="B390">
+        <v>0.72</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="8"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>43766</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43830</v>
+      </c>
+      <c r="B391">
+        <v>5.74</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="8"/>
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>43767</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
-        <v>43768</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
-        <v>43771</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
-        <v>43773</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
-        <v>43775</v>
-      </c>
+        <v>43831</v>
+      </c>
+      <c r="B392">
+        <v>4.34</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="8"/>
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
-        <v>43776</v>
-      </c>
+      <c r="A401" s="1"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
-        <v>43777</v>
-      </c>
+      <c r="A402" s="1"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
-        <v>43778</v>
-      </c>
+      <c r="A403" s="1"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
-        <v>43779</v>
-      </c>
+      <c r="A404" s="1"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
-        <v>43780</v>
-      </c>
+      <c r="A405" s="1"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
-        <v>43781</v>
-      </c>
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA86EAEE-5583-41B8-9AF6-075D84E513C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D7252-3965-4ABA-84D4-0F037639D1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>total</t>
   </si>
@@ -205,10 +205,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -230,10 +228,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>小时!$D$3:$D$317</c:f>
+              <c:f>小时!$D$3:$D$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="448"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
                 </c:pt>
@@ -1178,6 +1176,309 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>8.6499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>9.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>8.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3.9299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2.7800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,14 +2237,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2235,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="L421" sqref="L421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2565,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2240.7100000000019</v>
+        <v>2301.5500000000015</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,7 +2603,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2588.5200000000018</v>
+        <v>2649.3600000000015</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5801,7 +6102,7 @@
       </c>
       <c r="G277">
         <f>SUM(B:B)</f>
-        <v>2240.7100000000019</v>
+        <v>2301.5500000000015</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -5842,7 +6143,7 @@
       </c>
       <c r="G279">
         <f>SUM(G277:G278)</f>
-        <v>2588.5200000000018</v>
+        <v>2649.3600000000015</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -7197,7 +7498,7 @@
         <v>1.39</v>
       </c>
       <c r="D383">
-        <f t="shared" ref="D383:D392" si="8" xml:space="preserve"> B383 + C383</f>
+        <f t="shared" ref="D383:D418" si="8" xml:space="preserve"> B383 + C383</f>
         <v>1.39</v>
       </c>
     </row>
@@ -7305,105 +7606,309 @@
         <v>43831</v>
       </c>
       <c r="B392">
-        <v>4.34</v>
+        <v>5.54</v>
       </c>
       <c r="D392">
         <f t="shared" si="8"/>
-        <v>4.34</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B393">
+        <v>2.58</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="8"/>
+        <v>2.58</v>
+      </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
+      <c r="A394" s="1">
+        <v>43833</v>
+      </c>
+      <c r="D394">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
+      <c r="A395" s="1">
+        <v>43834</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
+      <c r="A396" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B396">
+        <v>3.1</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="8"/>
+        <v>3.1</v>
+      </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
+      <c r="A397" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B397">
+        <v>1.5</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B398">
+        <v>2.88</v>
+      </c>
+      <c r="D398">
+        <f t="shared" si="8"/>
+        <v>2.88</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B399">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D399">
+        <f t="shared" si="8"/>
+        <v>2.0299999999999998</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
+      <c r="A400" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B400">
+        <v>5.57</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="8"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B401">
+        <v>4.99</v>
+      </c>
+      <c r="D401">
+        <f t="shared" si="8"/>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>43841</v>
+      </c>
+      <c r="D402">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B403">
+        <v>4.67</v>
+      </c>
+      <c r="D403">
+        <f t="shared" si="8"/>
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>43843</v>
+      </c>
+      <c r="D404">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B405">
+        <v>1.74</v>
+      </c>
+      <c r="D405">
+        <f t="shared" si="8"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>43845</v>
+      </c>
+      <c r="D406">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>43846</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>43847</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B409">
+        <v>3.97</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="8"/>
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B410">
+        <v>9.67</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="8"/>
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B411">
+        <v>9.58</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="8"/>
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B412">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D412">
+        <f t="shared" si="8"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F412" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412">
+        <f>SUM(B:B)</f>
+        <v>2301.5500000000015</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B413">
+        <v>3.21</v>
+      </c>
+      <c r="D413">
+        <f t="shared" si="8"/>
+        <v>3.21</v>
+      </c>
+      <c r="F413" t="s">
+        <v>8</v>
+      </c>
+      <c r="G413">
+        <f>SUM(C:C)</f>
+        <v>347.81000000000006</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>43853</v>
+      </c>
+      <c r="D414">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F414" t="s">
+        <v>9</v>
+      </c>
+      <c r="G414">
+        <f>SUM(G412:G413)</f>
+        <v>2649.3600000000015</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>43854</v>
+      </c>
+      <c r="D415">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>43855</v>
+      </c>
+      <c r="D416">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>43856</v>
+      </c>
+      <c r="D417">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>43857</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D7252-3965-4ABA-84D4-0F037639D1AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF911A-C8F6-4CA0-94A0-2D886325BAD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">小时!$A$3:$A$414</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">小时!$A$3:$A$419</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">小时!$D$3:$D$414</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">小时!$D$3:$D$419</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">小时!$A$3:$A$414</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">小时!$A$3:$A$419</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">小时!$D$3:$D$414</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">小时!$D$3:$D$419</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>before</t>
-  </si>
-  <si>
-    <t>Surface total</t>
-  </si>
-  <si>
-    <t>Mission total</t>
   </si>
   <si>
     <t>注意：如果某个设备在某个日期有记录，就代表之前的日期全部都检查过了</t>
@@ -131,73 +130,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>每日时长（小时）</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46073025986255534"/>
-          <c:y val="3.8591395820399901E-2"/>
+          <c:x val="5.3420151342456496E-3"/>
+          <c:y val="6.677096343731137E-2"/>
+          <c:w val="0.98937975696897462"/>
+          <c:h val="0.85728429479248913"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -226,12 +171,1272 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>小时!$A$3:$A$419</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="417"/>
+                <c:pt idx="0">
+                  <c:v>43052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43081</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43083</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43084</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43117</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43119</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43121</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43129</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43134</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43135</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43141</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43145</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43148</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43149</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43150</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43152</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43153</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43154</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43155</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43156</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43161</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43162</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43163</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43166</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43168</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43198</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43289</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43290</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43295</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43318</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43319</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43320</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43322</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43323</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43327</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43328</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43329</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43336</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43338</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43339</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43341</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>43345</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>43346</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43362</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>43370</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43393</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43395</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43396</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43397</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43398</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>43402</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>43406</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>43408</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43409</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43410</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43414</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>43415</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43429</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43432</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43455</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43456</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43469</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43470</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43471</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43504</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43509</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43510</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>43511</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>43513</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43516</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>43517</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43518</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43519</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43520</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43521</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>43526</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>43527</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43528</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>43533</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>43535</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43538</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>43540</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>43541</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>43545</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>43546</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>43547</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>43551</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>43552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43553</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43554</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43557</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43559</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43560</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43561</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43562</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43565</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43568</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43569</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43579</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43580</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43588</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43591</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43594</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43595</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>43597</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43598</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>43601</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>43603</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>43604</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>43607</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>43608</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>43610</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43611</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>43614</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43616</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>43623</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>43629</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>43639</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>43642</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>43643</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>43644</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>43645</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>43649</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43650</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>43651</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>43652</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>43653</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>43654</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>43655</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>43656</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>43657</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>43658</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>43659</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>43660</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>43661</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>43662</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>43664</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>43665</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>43666</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>43668</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>43669</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>43670</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>43671</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>43672</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>43674</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>43675</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>43676</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>43679</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>43680</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>43681</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>43682</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>43683</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>43684</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>43685</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>43686</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>43687</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>43688</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>43689</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>43691</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>43693</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>43694</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>43695</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>43697</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>43701</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>43702</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>43712</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>43713</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>43714</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>43716</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>43717</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>43720</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>43721</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>43724</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>43730</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>43731</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>43734</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>43738</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>43741</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>43742</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>43745</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>43750</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>43755</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>43756</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>43757</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>43765</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>43766</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>43767</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>43772</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>43790</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>43791</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>43801</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>43808</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>43809</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>43813</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>43818</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>43822</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>43823</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>43824</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>43825</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>43826</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>43827</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>43829</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>43832</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>43834</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>43836</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>43839</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>43841</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>43842</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>43844</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>43846</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>43848</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>43849</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>43857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>小时!$D$3:$D$450</c:f>
+              <c:f>小时!$D$3:$D$419</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="448"/>
+                <c:ptCount val="417"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
                 </c:pt>
@@ -1394,79 +2599,79 @@
                   <c:v>6.32</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0.72</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="388">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="389">
                   <c:v>5.74</c:v>
                 </c:pt>
-                <c:pt idx="389">
+                <c:pt idx="390">
                   <c:v>5.54</c:v>
                 </c:pt>
-                <c:pt idx="390">
-                  <c:v>2.58</c:v>
-                </c:pt>
                 <c:pt idx="391">
-                  <c:v>0</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="392">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="393">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="394">
                   <c:v>3.1</c:v>
                 </c:pt>
-                <c:pt idx="394">
-                  <c:v>1.5</c:v>
-                </c:pt>
                 <c:pt idx="395">
-                  <c:v>2.88</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="396">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="397">
                   <c:v>2.0299999999999998</c:v>
                 </c:pt>
-                <c:pt idx="397">
-                  <c:v>5.57</c:v>
-                </c:pt>
                 <c:pt idx="398">
-                  <c:v>4.99</c:v>
+                  <c:v>7.2700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="399">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="406">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="400">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="406">
+                <c:pt idx="407">
                   <c:v>3.97</c:v>
                 </c:pt>
-                <c:pt idx="407">
+                <c:pt idx="408">
                   <c:v>9.67</c:v>
                 </c:pt>
-                <c:pt idx="408">
+                <c:pt idx="409">
                   <c:v>9.58</c:v>
                 </c:pt>
-                <c:pt idx="409">
-                  <c:v>4.1500000000000004</c:v>
-                </c:pt>
                 <c:pt idx="410">
-                  <c:v>3.21</c:v>
+                  <c:v>11.17</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>0</c:v>
+                  <c:v>3.7199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="412">
                   <c:v>0</c:v>
@@ -1478,6 +2683,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="415">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="416">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1486,7 +2694,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E107-4355-B330-53E29E27CF6D}"/>
+              <c16:uniqueId val="{00000000-6ECA-4B5F-BE84-F0F2061C7539}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,13 +2706,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445823136"/>
-        <c:axId val="445822480"/>
+        <c:axId val="1477558528"/>
+        <c:axId val="1499551536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445823136"/>
+        <c:axId val="1477558528"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1522,6 +2730,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1558,17 +2767,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445822480"/>
+        <c:crossAx val="1499551536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445822480"/>
+        <c:axId val="1499551536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1620,7 +2829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445823136"/>
+        <c:crossAx val="1477558528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2237,22 +3446,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>74032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>161921</xdr:colOff>
       <xdr:row>408</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>69271</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87639C8-768C-49EB-A913-546E4E4C5630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03C615B-4FF4-4698-B5DB-DC27ACB34BC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,10 +3745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="L421" sqref="L421"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L411" sqref="L411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,16 +3761,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
@@ -2570,7 +3779,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -2580,11 +3789,11 @@
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>347.81000000000006</v>
+        <v>369.79000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,11 +3808,11 @@
         <v>3.26</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2649.3600000000015</v>
+        <v>2671.3400000000015</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2642,7 +3851,7 @@
         <v>1.83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -6026,7 +7235,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>43648</v>
       </c>
@@ -6041,7 +7250,7 @@
         <v>1.9900000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>43649</v>
       </c>
@@ -6056,7 +7265,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>43650</v>
       </c>
@@ -6071,7 +7280,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>43651</v>
       </c>
@@ -6086,7 +7295,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>43652</v>
       </c>
@@ -6097,15 +7306,8 @@
         <f t="shared" si="5"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F277" t="s">
-        <v>2</v>
-      </c>
-      <c r="G277">
-        <f>SUM(B:B)</f>
-        <v>2301.5500000000015</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>43653</v>
       </c>
@@ -6116,15 +7318,8 @@
         <f t="shared" si="5"/>
         <v>3.74</v>
       </c>
-      <c r="F278" t="s">
-        <v>3</v>
-      </c>
-      <c r="G278">
-        <f>SUM(C:C)</f>
-        <v>347.81000000000006</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>43654</v>
       </c>
@@ -6138,15 +7333,8 @@
         <f t="shared" si="5"/>
         <v>7.57</v>
       </c>
-      <c r="F279" t="s">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <f>SUM(G277:G278)</f>
-        <v>2649.3600000000015</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>43655</v>
       </c>
@@ -6161,7 +7349,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>43656</v>
       </c>
@@ -6176,7 +7364,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>43657</v>
       </c>
@@ -6188,7 +7376,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>43658</v>
       </c>
@@ -6200,7 +7388,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>43659</v>
       </c>
@@ -6212,7 +7400,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>43660</v>
       </c>
@@ -6224,7 +7412,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>43661</v>
       </c>
@@ -6236,7 +7424,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>43662</v>
       </c>
@@ -6251,7 +7439,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>43663</v>
       </c>
@@ -7498,7 +8686,7 @@
         <v>1.39</v>
       </c>
       <c r="D383">
-        <f t="shared" ref="D383:D418" si="8" xml:space="preserve"> B383 + C383</f>
+        <f t="shared" ref="D383:D419" si="8" xml:space="preserve"> B383 + C383</f>
         <v>1.39</v>
       </c>
     </row>
@@ -7584,59 +8772,68 @@
       <c r="B390">
         <v>0.72</v>
       </c>
+      <c r="C390">
+        <v>0.49</v>
+      </c>
       <c r="D390">
         <f t="shared" si="8"/>
-        <v>0.72</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B391">
-        <v>5.74</v>
+        <v>43829</v>
+      </c>
+      <c r="C391">
+        <v>2.48</v>
       </c>
       <c r="D391">
         <f t="shared" si="8"/>
-        <v>5.74</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>43831</v>
+        <v>43830</v>
       </c>
       <c r="B392">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="D392">
         <f t="shared" si="8"/>
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>43832</v>
+        <v>43831</v>
       </c>
       <c r="B393">
-        <v>2.58</v>
+        <v>5.54</v>
       </c>
       <c r="D393">
         <f t="shared" si="8"/>
-        <v>2.58</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>43833</v>
+        <v>43832</v>
+      </c>
+      <c r="B394">
+        <v>2.58</v>
+      </c>
+      <c r="C394">
+        <v>0.33</v>
       </c>
       <c r="D394">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>43834</v>
+        <v>43833</v>
       </c>
       <c r="D395">
         <f t="shared" si="8"/>
@@ -7645,194 +8842,218 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B396">
-        <v>3.1</v>
+        <v>43834</v>
       </c>
       <c r="D396">
         <f t="shared" si="8"/>
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>43836</v>
+        <v>43835</v>
       </c>
       <c r="B397">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="D397">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>43837</v>
+        <v>43836</v>
       </c>
       <c r="B398">
-        <v>2.88</v>
+        <v>1.5</v>
+      </c>
+      <c r="C398">
+        <v>1.2</v>
       </c>
       <c r="D398">
         <f t="shared" si="8"/>
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>43838</v>
+        <v>43837</v>
       </c>
       <c r="B399">
-        <v>2.0299999999999998</v>
+        <v>2.88</v>
+      </c>
+      <c r="C399">
+        <v>0.64</v>
       </c>
       <c r="D399">
         <f t="shared" si="8"/>
-        <v>2.0299999999999998</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>43839</v>
+        <v>43838</v>
       </c>
       <c r="B400">
-        <v>5.57</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D400">
         <f t="shared" si="8"/>
-        <v>5.57</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>43840</v>
+        <v>43839</v>
       </c>
       <c r="B401">
-        <v>4.99</v>
+        <v>5.57</v>
+      </c>
+      <c r="C401">
+        <v>1.7</v>
       </c>
       <c r="D401">
         <f t="shared" si="8"/>
-        <v>4.99</v>
+        <v>7.2700000000000005</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>43841</v>
+        <v>43840</v>
+      </c>
+      <c r="B402">
+        <v>4.99</v>
+      </c>
+      <c r="C402">
+        <v>2.2400000000000002</v>
       </c>
       <c r="D402">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B403">
-        <v>4.67</v>
+        <v>43841</v>
+      </c>
+      <c r="C403">
+        <v>0.94</v>
       </c>
       <c r="D403">
         <f t="shared" si="8"/>
-        <v>4.67</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>43843</v>
+        <v>43842</v>
+      </c>
+      <c r="B404">
+        <v>4.67</v>
       </c>
       <c r="D404">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>43844</v>
-      </c>
-      <c r="B405">
-        <v>1.74</v>
+        <v>43843</v>
+      </c>
+      <c r="C405">
+        <v>1.1100000000000001</v>
       </c>
       <c r="D405">
         <f t="shared" si="8"/>
-        <v>1.74</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>43845</v>
+        <v>43844</v>
+      </c>
+      <c r="B406">
+        <v>1.74</v>
+      </c>
+      <c r="C406">
+        <v>2.79</v>
       </c>
       <c r="D406">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>43846</v>
+        <v>43845</v>
+      </c>
+      <c r="C407">
+        <v>0.28999999999999998</v>
       </c>
       <c r="D407">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>43847</v>
+        <v>43846</v>
+      </c>
+      <c r="C408">
+        <v>0.24</v>
       </c>
       <c r="D408">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>43848</v>
-      </c>
-      <c r="B409">
-        <v>3.97</v>
+        <v>43847</v>
       </c>
       <c r="D409">
         <f t="shared" si="8"/>
-        <v>3.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>43849</v>
+        <v>43848</v>
       </c>
       <c r="B410">
-        <v>9.67</v>
+        <v>3.97</v>
       </c>
       <c r="D410">
         <f t="shared" si="8"/>
-        <v>9.67</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>43850</v>
+        <v>43849</v>
       </c>
       <c r="B411">
-        <v>9.58</v>
+        <v>9.67</v>
       </c>
       <c r="D411">
         <f t="shared" si="8"/>
-        <v>9.58</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>43851</v>
+        <v>43850</v>
       </c>
       <c r="B412">
-        <v>4.1500000000000004</v>
+        <v>9.58</v>
       </c>
       <c r="D412">
         <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
+        <v>9.58</v>
       </c>
       <c r="F412" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G412">
         <f>SUM(B:B)</f>
@@ -7841,42 +9062,51 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>43852</v>
+        <v>43851</v>
       </c>
       <c r="B413">
-        <v>3.21</v>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C413">
+        <v>7.02</v>
       </c>
       <c r="D413">
         <f t="shared" si="8"/>
-        <v>3.21</v>
+        <v>11.17</v>
       </c>
       <c r="F413" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G413">
         <f>SUM(C:C)</f>
-        <v>347.81000000000006</v>
+        <v>369.79000000000008</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>43853</v>
+        <v>43852</v>
+      </c>
+      <c r="B414">
+        <v>3.21</v>
+      </c>
+      <c r="C414">
+        <v>0.51</v>
       </c>
       <c r="D414">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="F414" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G414">
         <f>SUM(G412:G413)</f>
-        <v>2649.3600000000015</v>
+        <v>2671.3400000000015</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>43854</v>
+        <v>43853</v>
       </c>
       <c r="D415">
         <f t="shared" si="8"/>
@@ -7885,7 +9115,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>43855</v>
+        <v>43854</v>
       </c>
       <c r="D416">
         <f t="shared" si="8"/>
@@ -7894,7 +9124,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="D417">
         <f t="shared" si="8"/>
@@ -7903,9 +9133,18 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
+        <v>43856</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>43857</v>
       </c>
-      <c r="D418">
+      <c r="D419">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBF911A-C8F6-4CA0-94A0-2D886325BAD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE46F682-844F-4A02-BDC0-7E30C1CF328C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">小时!$A$3:$A$414</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">小时!$A$3:$A$419</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">小时!$D$3:$D$414</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">小时!$D$3:$D$419</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">小时!$A$3:$A$414</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">小时!$A$3:$A$419</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">小时!$D$3:$D$414</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">小时!$D$3:$D$419</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2671,22 +2661,22 @@
                   <c:v>11.17</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>3.7199999999999998</c:v>
+                  <c:v>6.72</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>0</c:v>
+                  <c:v>8.42</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>0</c:v>
+                  <c:v>1.8399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="414">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>0</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,10 +3735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L411" sqref="L411"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H422" sqref="H422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,7 +3764,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2301.5500000000015</v>
+        <v>2331.7300000000009</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3793,7 +3783,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>369.79000000000008</v>
+        <v>385.49000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3812,7 +3802,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2671.3400000000015</v>
+        <v>2717.2200000000012</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8686,7 +8676,7 @@
         <v>1.39</v>
       </c>
       <c r="D383">
-        <f t="shared" ref="D383:D419" si="8" xml:space="preserve"> B383 + C383</f>
+        <f t="shared" ref="D383:D446" si="8" xml:space="preserve"> B383 + C383</f>
         <v>1.39</v>
       </c>
     </row>
@@ -9057,7 +9047,7 @@
       </c>
       <c r="G412">
         <f>SUM(B:B)</f>
-        <v>2301.5500000000015</v>
+        <v>2331.7300000000009</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -9079,7 +9069,7 @@
       </c>
       <c r="G413">
         <f>SUM(C:C)</f>
-        <v>369.79000000000008</v>
+        <v>385.49000000000007</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -9087,39 +9077,51 @@
         <v>43852</v>
       </c>
       <c r="B414">
-        <v>3.21</v>
+        <v>4.18</v>
       </c>
       <c r="C414">
-        <v>0.51</v>
+        <v>2.54</v>
       </c>
       <c r="D414">
         <f t="shared" si="8"/>
-        <v>3.7199999999999998</v>
+        <v>6.72</v>
       </c>
       <c r="F414" t="s">
         <v>6</v>
       </c>
       <c r="G414">
         <f>SUM(G412:G413)</f>
-        <v>2671.3400000000015</v>
+        <v>2717.2200000000012</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>43853</v>
       </c>
+      <c r="B415">
+        <v>7.33</v>
+      </c>
+      <c r="C415">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="D415">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>43854</v>
       </c>
+      <c r="B416">
+        <v>1.63</v>
+      </c>
+      <c r="C416">
+        <v>0.21</v>
+      </c>
       <c r="D416">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8399999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -9135,19 +9137,178 @@
       <c r="A418" s="1">
         <v>43856</v>
       </c>
+      <c r="B418">
+        <v>0.2</v>
+      </c>
       <c r="D418">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>43857</v>
       </c>
+      <c r="B419">
+        <v>0.39</v>
+      </c>
       <c r="D419">
         <f t="shared" si="8"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>43858</v>
+      </c>
+      <c r="D420">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C421">
+        <v>0.78</v>
+      </c>
+      <c r="D421">
+        <f t="shared" si="8"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C422">
+        <v>2.73</v>
+      </c>
+      <c r="D422">
+        <f t="shared" si="8"/>
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>43861</v>
+      </c>
+      <c r="C423">
+        <v>1.72</v>
+      </c>
+      <c r="D423">
+        <f t="shared" si="8"/>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B424">
+        <v>5.46</v>
+      </c>
+      <c r="D424">
+        <f t="shared" si="8"/>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B425">
+        <v>7.43</v>
+      </c>
+      <c r="D425">
+        <f t="shared" si="8"/>
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B426">
+        <v>3.94</v>
+      </c>
+      <c r="C426">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D426">
+        <f t="shared" si="8"/>
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B427">
+        <v>2.83</v>
+      </c>
+      <c r="C427">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D427">
+        <f t="shared" si="8"/>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE46F682-844F-4A02-BDC0-7E30C1CF328C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D281AA-594A-479E-A562-F3B62484ED8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="375" windowWidth="18510" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3737,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H422" sqref="H422"/>
+    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,7 +3766,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2331.7300000000009</v>
+        <v>2366.4600000000005</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3783,7 +3785,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>385.49000000000007</v>
+        <v>397.86000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3802,7 +3804,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2717.2200000000012</v>
+        <v>2764.3200000000006</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8676,7 +8678,7 @@
         <v>1.39</v>
       </c>
       <c r="D383">
-        <f t="shared" ref="D383:D446" si="8" xml:space="preserve"> B383 + C383</f>
+        <f t="shared" ref="D383:D444" si="8" xml:space="preserve"> B383 + C383</f>
         <v>1.39</v>
       </c>
     </row>
@@ -9047,7 +9049,7 @@
       </c>
       <c r="G412">
         <f>SUM(B:B)</f>
-        <v>2331.7300000000009</v>
+        <v>2366.4600000000005</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -9069,7 +9071,7 @@
       </c>
       <c r="G413">
         <f>SUM(C:C)</f>
-        <v>385.49000000000007</v>
+        <v>397.86000000000007</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -9091,7 +9093,7 @@
       </c>
       <c r="G414">
         <f>SUM(G412:G413)</f>
-        <v>2717.2200000000012</v>
+        <v>2764.3200000000006</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -9246,68 +9248,146 @@
         <v>43865</v>
       </c>
       <c r="B427">
-        <v>2.83</v>
+        <v>5.33</v>
       </c>
       <c r="C427">
-        <v>2.4500000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="D427">
         <f t="shared" si="8"/>
-        <v>5.28</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
+      <c r="A428" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B428">
+        <v>3.6</v>
+      </c>
+      <c r="C428">
+        <v>1.23</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="8"/>
+        <v>4.83</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
+      <c r="A429" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B429">
+        <v>4.95</v>
+      </c>
+      <c r="C429">
+        <v>0.91</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="8"/>
+        <v>5.86</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
+      <c r="A430" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B430">
+        <v>3.57</v>
+      </c>
+      <c r="C430">
+        <v>3.28</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="8"/>
+        <v>6.85</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
+      <c r="A431" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B431">
+        <v>10.79</v>
+      </c>
+      <c r="D431">
+        <f t="shared" si="8"/>
+        <v>10.79</v>
+      </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B432">
+        <v>4.22</v>
+      </c>
+      <c r="D432">
+        <f t="shared" si="8"/>
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B433">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C433">
+        <v>1.65</v>
+      </c>
+      <c r="D433">
+        <f t="shared" si="8"/>
+        <v>6.3800000000000008</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B434">
+        <v>0.37</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+      <c r="D434">
+        <f t="shared" si="8"/>
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
     </row>
   </sheetData>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D281AA-594A-479E-A562-F3B62484ED8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD1FDAE-7D2B-4B3D-BA24-CF716CDA8CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="375" windowWidth="18510" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>小时!$A$3:$A$419</c:f>
+              <c:f>小时!$A$3:$A$463</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="417"/>
+                <c:ptCount val="461"/>
                 <c:pt idx="0">
                   <c:v>43052</c:v>
                 </c:pt>
@@ -1419,16 +1419,148 @@
                 </c:pt>
                 <c:pt idx="416">
                   <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>43904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>小时!$D$3:$D$419</c:f>
+              <c:f>小时!$D$3:$D$463</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="417"/>
+                <c:ptCount val="461"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
                 </c:pt>
@@ -2679,6 +2811,138 @@
                 </c:pt>
                 <c:pt idx="416">
                   <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>6.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2.0700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>4.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>4.7700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>6.79</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,15 +3702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>74032</xdr:rowOff>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>140707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>161921</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>69271</xdr:rowOff>
+      <xdr:colOff>200021</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>135946</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3737,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I445"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H465" sqref="H465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,7 +4030,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2366.4600000000005</v>
+        <v>2451.8200000000011</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3785,7 +4049,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>397.86000000000007</v>
+        <v>431.14000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3804,7 +4068,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2764.3200000000006</v>
+        <v>2882.9600000000009</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8678,7 +8942,7 @@
         <v>1.39</v>
       </c>
       <c r="D383">
-        <f t="shared" ref="D383:D444" si="8" xml:space="preserve"> B383 + C383</f>
+        <f t="shared" ref="D383:D446" si="8" xml:space="preserve"> B383 + C383</f>
         <v>1.39</v>
       </c>
     </row>
@@ -8895,7 +9159,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>43839</v>
       </c>
@@ -8910,7 +9174,7 @@
         <v>7.2700000000000005</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>43840</v>
       </c>
@@ -8925,7 +9189,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>43841</v>
       </c>
@@ -8937,7 +9201,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>43842</v>
       </c>
@@ -8949,7 +9213,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>43843</v>
       </c>
@@ -8961,7 +9225,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>43844</v>
       </c>
@@ -8976,7 +9240,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>43845</v>
       </c>
@@ -8988,7 +9252,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>43846</v>
       </c>
@@ -9000,7 +9264,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>43847</v>
       </c>
@@ -9009,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>43848</v>
       </c>
@@ -9021,7 +9285,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>43849</v>
       </c>
@@ -9033,7 +9297,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>43850</v>
       </c>
@@ -9044,15 +9308,8 @@
         <f t="shared" si="8"/>
         <v>9.58</v>
       </c>
-      <c r="F412" t="s">
-        <v>4</v>
-      </c>
-      <c r="G412">
-        <f>SUM(B:B)</f>
-        <v>2366.4600000000005</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>43851</v>
       </c>
@@ -9066,15 +9323,8 @@
         <f t="shared" si="8"/>
         <v>11.17</v>
       </c>
-      <c r="F413" t="s">
-        <v>5</v>
-      </c>
-      <c r="G413">
-        <f>SUM(C:C)</f>
-        <v>397.86000000000007</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>43852</v>
       </c>
@@ -9088,15 +9338,8 @@
         <f t="shared" si="8"/>
         <v>6.72</v>
       </c>
-      <c r="F414" t="s">
-        <v>6</v>
-      </c>
-      <c r="G414">
-        <f>SUM(G412:G413)</f>
-        <v>2764.3200000000006</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>43853</v>
       </c>
@@ -9111,7 +9354,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>43854</v>
       </c>
@@ -9347,48 +9590,603 @@
         <v>43872</v>
       </c>
       <c r="B434">
-        <v>0.37</v>
+        <v>1.03</v>
       </c>
       <c r="C434">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D434">
         <f t="shared" si="8"/>
-        <v>3.37</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C435">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D435">
+        <f t="shared" si="8"/>
+        <v>4.0199999999999996</v>
+      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="1"/>
+      <c r="A436" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C436">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D436">
+        <f t="shared" si="8"/>
+        <v>1.1599999999999999</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
+      <c r="A437" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B437">
+        <v>3.98</v>
+      </c>
+      <c r="D437">
+        <f t="shared" si="8"/>
+        <v>3.98</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
+      <c r="A438" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B438">
+        <v>0.82</v>
+      </c>
+      <c r="C438">
+        <v>0.69</v>
+      </c>
+      <c r="D438">
+        <f t="shared" si="8"/>
+        <v>1.5099999999999998</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
+      <c r="A439" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B439">
+        <v>0.76</v>
+      </c>
+      <c r="C439">
+        <v>1.31</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="8"/>
+        <v>2.0700000000000003</v>
+      </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="1"/>
+      <c r="A440" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B440">
+        <v>2.6</v>
+      </c>
+      <c r="C440">
+        <v>1.62</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="8"/>
+        <v>4.2200000000000006</v>
+      </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
+      <c r="A441" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B441">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C441">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="8"/>
+        <v>4.7700000000000005</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="1"/>
+      <c r="A442" s="1">
+        <v>43883</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
+      <c r="A443" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B443">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D443">
+        <f t="shared" si="8"/>
+        <v>2.2599999999999998</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="1"/>
+      <c r="A444" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B444">
+        <v>1.41</v>
+      </c>
+      <c r="C444">
+        <v>2.81</v>
+      </c>
+      <c r="D444">
+        <f t="shared" si="8"/>
+        <v>4.22</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
+      <c r="A445" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B445">
+        <v>2.54</v>
+      </c>
+      <c r="D445">
+        <f t="shared" si="8"/>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B446">
+        <v>3.39</v>
+      </c>
+      <c r="D446">
+        <f t="shared" si="8"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B447">
+        <v>2.61</v>
+      </c>
+      <c r="C447">
+        <v>2.61</v>
+      </c>
+      <c r="D447">
+        <f t="shared" ref="D447:D463" si="9" xml:space="preserve"> B447 + C447</f>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C448">
+        <v>3.59</v>
+      </c>
+      <c r="D448">
+        <f t="shared" si="9"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B450">
+        <v>2.86</v>
+      </c>
+      <c r="D450">
+        <f t="shared" si="9"/>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B451">
+        <v>4.21</v>
+      </c>
+      <c r="C451">
+        <v>2.96</v>
+      </c>
+      <c r="D451">
+        <f t="shared" si="9"/>
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B452">
+        <v>0.59</v>
+      </c>
+      <c r="C452">
+        <v>2.5</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="9"/>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>43894</v>
+      </c>
+      <c r="C453">
+        <v>0.34</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="9"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1.65</v>
+      </c>
+      <c r="D454">
+        <f t="shared" si="9"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B455">
+        <v>4.18</v>
+      </c>
+      <c r="C455">
+        <v>1.48</v>
+      </c>
+      <c r="D455">
+        <f t="shared" si="9"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>43897</v>
+      </c>
+      <c r="D456">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B457">
+        <v>7.32</v>
+      </c>
+      <c r="D457">
+        <f t="shared" si="9"/>
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B458">
+        <v>12.5</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B459">
+        <v>7.9</v>
+      </c>
+      <c r="D459">
+        <f t="shared" si="9"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B460">
+        <v>6.79</v>
+      </c>
+      <c r="D460">
+        <f t="shared" si="9"/>
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B461">
+        <v>8.44</v>
+      </c>
+      <c r="D461">
+        <f t="shared" si="9"/>
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B462">
+        <v>6.24</v>
+      </c>
+      <c r="D462">
+        <f t="shared" si="9"/>
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B463">
+        <v>1.72</v>
+      </c>
+      <c r="C463">
+        <v>0.35</v>
+      </c>
+      <c r="D463">
+        <f t="shared" si="9"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F463" t="s">
+        <v>4</v>
+      </c>
+      <c r="G463">
+        <f>SUM(B:B)</f>
+        <v>2451.8200000000011</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="1"/>
+      <c r="F464" t="s">
+        <v>5</v>
+      </c>
+      <c r="G464">
+        <f>SUM(C:C)</f>
+        <v>431.14000000000004</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="1"/>
+      <c r="F465" t="s">
+        <v>6</v>
+      </c>
+      <c r="G465">
+        <f>SUM(G463:G464)</f>
+        <v>2882.9600000000009</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="1"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="1"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="1"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="1"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="1"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="1"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="1"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="1"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="1"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="1"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="1"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="1"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="1"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD1FDAE-7D2B-4B3D-BA24-CF716CDA8CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524A4EF-248F-413E-A8E2-7B18CCBE45C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="390" windowWidth="21600" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -165,10 +163,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>小时!$A$3:$A$463</c:f>
+              <c:f>小时!$A$3:$A$479</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="461"/>
+                <c:ptCount val="477"/>
                 <c:pt idx="0">
                   <c:v>43052</c:v>
                 </c:pt>
@@ -1346,221 +1344,269 @@
                   <c:v>43832</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>43833</c:v>
+                  <c:v>43835</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>43834</c:v>
+                  <c:v>43836</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>43835</c:v>
+                  <c:v>43837</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>43836</c:v>
+                  <c:v>43838</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>43837</c:v>
+                  <c:v>43839</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>43838</c:v>
+                  <c:v>43840</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>43839</c:v>
+                  <c:v>43841</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>43840</c:v>
+                  <c:v>43842</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>43841</c:v>
+                  <c:v>43843</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>43842</c:v>
+                  <c:v>43844</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>43843</c:v>
+                  <c:v>43845</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>43844</c:v>
+                  <c:v>43846</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>43845</c:v>
+                  <c:v>43848</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>43846</c:v>
+                  <c:v>43849</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>43847</c:v>
+                  <c:v>43850</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>43848</c:v>
+                  <c:v>43851</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>43849</c:v>
+                  <c:v>43852</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>43850</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>43851</c:v>
+                  <c:v>43854</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>43852</c:v>
+                  <c:v>43856</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>43853</c:v>
+                  <c:v>43857</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>43854</c:v>
+                  <c:v>43859</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>43855</c:v>
+                  <c:v>43860</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>43856</c:v>
+                  <c:v>43861</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>43857</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>43858</c:v>
+                  <c:v>43863</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>43859</c:v>
+                  <c:v>43864</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>43860</c:v>
+                  <c:v>43865</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>43861</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>43862</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>43863</c:v>
+                  <c:v>43868</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>43864</c:v>
+                  <c:v>43869</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>43865</c:v>
+                  <c:v>43870</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>43866</c:v>
+                  <c:v>43871</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>43867</c:v>
+                  <c:v>43872</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>43868</c:v>
+                  <c:v>43874</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>43869</c:v>
+                  <c:v>43875</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>43870</c:v>
+                  <c:v>43878</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>43871</c:v>
+                  <c:v>43879</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>43872</c:v>
+                  <c:v>43880</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>43874</c:v>
+                  <c:v>43881</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>43875</c:v>
+                  <c:v>43882</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>43878</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>43879</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>43880</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>43881</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>43882</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>43883</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>43884</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>43885</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>43886</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>43887</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>43888</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>43889</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>43890</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>43891</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>43892</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>43893</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>43894</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>43895</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>43896</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>43897</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>43898</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>43899</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>43900</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>43901</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>43902</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>43903</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>43904</c:v>
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>43934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>小时!$D$3:$D$463</c:f>
+              <c:f>小时!$D$3:$D$479</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="461"/>
+                <c:ptCount val="477"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
                 </c:pt>
@@ -2738,211 +2784,259 @@
                   <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>3.1</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>2.7</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>3.52</c:v>
+                  <c:v>7.2700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>7.23</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>7.2700000000000005</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>7.23</c:v>
+                  <c:v>4.67</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>0.94</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>4.67</c:v>
+                  <c:v>4.53</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>4.53</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>0.24</c:v>
+                  <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>0</c:v>
+                  <c:v>9.58</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>3.97</c:v>
+                  <c:v>11.17</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>9.67</c:v>
+                  <c:v>6.72</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>9.58</c:v>
+                  <c:v>8.42</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>11.17</c:v>
+                  <c:v>1.8399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>6.72</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>8.42</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.8399999999999999</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>0</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>0.2</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>0.39</c:v>
+                  <c:v>5.46</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>0</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>0.78</c:v>
+                  <c:v>8.6300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>2.73</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.72</c:v>
+                  <c:v>4.83</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>5.46</c:v>
+                  <c:v>5.86</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>7.43</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>8.6300000000000008</c:v>
+                  <c:v>10.79</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>10.08</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>4.83</c:v>
+                  <c:v>6.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>5.86</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>6.85</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>10.79</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="429">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>2.0700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>4.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>4.7700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="435">
                   <c:v>4.22</c:v>
                 </c:pt>
-                <c:pt idx="430">
-                  <c:v>6.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>6.03</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>4.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>1.5099999999999998</c:v>
-                </c:pt>
                 <c:pt idx="436">
-                  <c:v>2.0700000000000003</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>4.2200000000000006</c:v>
+                  <c:v>3.39</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>4.7700000000000005</c:v>
+                  <c:v>5.22</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>0</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="441">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>6.79</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="463">
                   <c:v>4.22</c:v>
                 </c:pt>
-                <c:pt idx="442">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>5.22</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>3.59</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>7.17</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>2.65</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>5.66</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>6.79</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>8.44</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>6.24</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>2.0699999999999998</c:v>
+                <c:pt idx="464">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>5.1499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,15 +3796,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>435</xdr:row>
-      <xdr:rowOff>140707</xdr:rowOff>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>45457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>200021</xdr:colOff>
-      <xdr:row>451</xdr:row>
-      <xdr:rowOff>135946</xdr:rowOff>
+      <xdr:colOff>314321</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>40696</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4001,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H465" sqref="H465"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I480" sqref="I480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,7 +4124,7 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>2451.8200000000011</v>
+        <v>2513.0900000000015</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4049,7 +4143,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>431.14000000000004</v>
+        <v>475.04</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,7 +4162,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2882.9600000000009</v>
+        <v>2988.1300000000015</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8942,7 +9036,7 @@
         <v>1.39</v>
       </c>
       <c r="D383">
-        <f t="shared" ref="D383:D446" si="8" xml:space="preserve"> B383 + C383</f>
+        <f t="shared" ref="D383:D440" si="8" xml:space="preserve"> B383 + C383</f>
         <v>1.39</v>
       </c>
     </row>
@@ -9089,1007 +9183,1199 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>43833</v>
+        <v>43835</v>
+      </c>
+      <c r="B395">
+        <v>3.1</v>
       </c>
       <c r="D395">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>43834</v>
+        <v>43836</v>
+      </c>
+      <c r="B396">
+        <v>1.5</v>
+      </c>
+      <c r="C396">
+        <v>1.2</v>
       </c>
       <c r="D396">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>43835</v>
+        <v>43837</v>
       </c>
       <c r="B397">
-        <v>3.1</v>
+        <v>2.88</v>
+      </c>
+      <c r="C397">
+        <v>0.64</v>
       </c>
       <c r="D397">
         <f t="shared" si="8"/>
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>43836</v>
+        <v>43838</v>
       </c>
       <c r="B398">
-        <v>1.5</v>
-      </c>
-      <c r="C398">
-        <v>1.2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D398">
         <f t="shared" si="8"/>
-        <v>2.7</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>43837</v>
+        <v>43839</v>
       </c>
       <c r="B399">
-        <v>2.88</v>
+        <v>5.57</v>
       </c>
       <c r="C399">
-        <v>0.64</v>
+        <v>1.7</v>
       </c>
       <c r="D399">
         <f t="shared" si="8"/>
-        <v>3.52</v>
+        <v>7.2700000000000005</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>43838</v>
+        <v>43840</v>
       </c>
       <c r="B400">
-        <v>2.0299999999999998</v>
+        <v>4.99</v>
+      </c>
+      <c r="C400">
+        <v>2.2400000000000002</v>
       </c>
       <c r="D400">
         <f t="shared" si="8"/>
-        <v>2.0299999999999998</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B401">
-        <v>5.57</v>
+        <v>43841</v>
       </c>
       <c r="C401">
-        <v>1.7</v>
+        <v>0.94</v>
       </c>
       <c r="D401">
         <f t="shared" si="8"/>
-        <v>7.2700000000000005</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>43840</v>
+        <v>43842</v>
       </c>
       <c r="B402">
-        <v>4.99</v>
-      </c>
-      <c r="C402">
-        <v>2.2400000000000002</v>
+        <v>4.67</v>
       </c>
       <c r="D402">
         <f t="shared" si="8"/>
-        <v>7.23</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>43841</v>
+        <v>43843</v>
       </c>
       <c r="C403">
-        <v>0.94</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D403">
         <f t="shared" si="8"/>
-        <v>0.94</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>43842</v>
+        <v>43844</v>
       </c>
       <c r="B404">
-        <v>4.67</v>
+        <v>1.74</v>
+      </c>
+      <c r="C404">
+        <v>2.79</v>
       </c>
       <c r="D404">
         <f t="shared" si="8"/>
-        <v>4.67</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>43843</v>
+        <v>43845</v>
       </c>
       <c r="C405">
-        <v>1.1100000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D405">
         <f t="shared" si="8"/>
-        <v>1.1100000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>43844</v>
-      </c>
-      <c r="B406">
-        <v>1.74</v>
+        <v>43846</v>
       </c>
       <c r="C406">
-        <v>2.79</v>
+        <v>0.24</v>
       </c>
       <c r="D406">
         <f t="shared" si="8"/>
-        <v>4.53</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>43845</v>
-      </c>
-      <c r="C407">
-        <v>0.28999999999999998</v>
+        <v>43848</v>
+      </c>
+      <c r="B407">
+        <v>3.97</v>
       </c>
       <c r="D407">
         <f t="shared" si="8"/>
-        <v>0.28999999999999998</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>43846</v>
-      </c>
-      <c r="C408">
-        <v>0.24</v>
+        <v>43849</v>
+      </c>
+      <c r="B408">
+        <v>9.67</v>
       </c>
       <c r="D408">
         <f t="shared" si="8"/>
-        <v>0.24</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>43847</v>
+        <v>43850</v>
+      </c>
+      <c r="B409">
+        <v>9.58</v>
       </c>
       <c r="D409">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>43848</v>
+        <v>43851</v>
       </c>
       <c r="B410">
-        <v>3.97</v>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C410">
+        <v>7.02</v>
       </c>
       <c r="D410">
         <f t="shared" si="8"/>
-        <v>3.97</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>43849</v>
+        <v>43852</v>
       </c>
       <c r="B411">
-        <v>9.67</v>
+        <v>4.18</v>
+      </c>
+      <c r="C411">
+        <v>2.54</v>
       </c>
       <c r="D411">
         <f t="shared" si="8"/>
-        <v>9.67</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>43850</v>
+        <v>43853</v>
       </c>
       <c r="B412">
-        <v>9.58</v>
+        <v>7.33</v>
+      </c>
+      <c r="C412">
+        <v>1.0900000000000001</v>
       </c>
       <c r="D412">
         <f t="shared" si="8"/>
-        <v>9.58</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>43851</v>
+        <v>43854</v>
       </c>
       <c r="B413">
-        <v>4.1500000000000004</v>
+        <v>1.63</v>
       </c>
       <c r="C413">
-        <v>7.02</v>
+        <v>0.21</v>
       </c>
       <c r="D413">
         <f t="shared" si="8"/>
-        <v>11.17</v>
+        <v>1.8399999999999999</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>43852</v>
+        <v>43856</v>
       </c>
       <c r="B414">
-        <v>4.18</v>
-      </c>
-      <c r="C414">
-        <v>2.54</v>
+        <v>0.2</v>
       </c>
       <c r="D414">
         <f t="shared" si="8"/>
-        <v>6.72</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>43853</v>
+        <v>43857</v>
       </c>
       <c r="B415">
-        <v>7.33</v>
-      </c>
-      <c r="C415">
-        <v>1.0900000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="D415">
         <f t="shared" si="8"/>
-        <v>8.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>43854</v>
-      </c>
-      <c r="B416">
-        <v>1.63</v>
+        <v>43859</v>
       </c>
       <c r="C416">
-        <v>0.21</v>
+        <v>0.78</v>
       </c>
       <c r="D416">
         <f t="shared" si="8"/>
-        <v>1.8399999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>43855</v>
+        <v>43860</v>
+      </c>
+      <c r="C417">
+        <v>2.73</v>
       </c>
       <c r="D417">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B418">
-        <v>0.2</v>
+        <v>43861</v>
+      </c>
+      <c r="C418">
+        <v>1.72</v>
       </c>
       <c r="D418">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>43857</v>
+        <v>43862</v>
       </c>
       <c r="B419">
-        <v>0.39</v>
+        <v>5.46</v>
       </c>
       <c r="D419">
         <f t="shared" si="8"/>
-        <v>0.39</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>43858</v>
+        <v>43863</v>
+      </c>
+      <c r="B420">
+        <v>7.43</v>
       </c>
       <c r="D420">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>43859</v>
+        <v>43864</v>
+      </c>
+      <c r="B421">
+        <v>3.94</v>
       </c>
       <c r="C421">
-        <v>0.78</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="D421">
         <f t="shared" si="8"/>
-        <v>0.78</v>
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>43860</v>
+        <v>43865</v>
+      </c>
+      <c r="B422">
+        <v>5.33</v>
       </c>
       <c r="C422">
-        <v>2.73</v>
+        <v>4.75</v>
       </c>
       <c r="D422">
         <f t="shared" si="8"/>
-        <v>2.73</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>43861</v>
+        <v>43866</v>
+      </c>
+      <c r="B423">
+        <v>3.6</v>
       </c>
       <c r="C423">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="D423">
         <f t="shared" si="8"/>
-        <v>1.72</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>43862</v>
+        <v>43867</v>
       </c>
       <c r="B424">
-        <v>5.46</v>
+        <v>4.95</v>
+      </c>
+      <c r="C424">
+        <v>0.91</v>
       </c>
       <c r="D424">
         <f t="shared" si="8"/>
-        <v>5.46</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>43863</v>
+        <v>43868</v>
       </c>
       <c r="B425">
-        <v>7.43</v>
+        <v>3.57</v>
+      </c>
+      <c r="C425">
+        <v>3.28</v>
       </c>
       <c r="D425">
         <f t="shared" si="8"/>
-        <v>7.43</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>43864</v>
+        <v>43869</v>
       </c>
       <c r="B426">
-        <v>3.94</v>
-      </c>
-      <c r="C426">
-        <v>4.6900000000000004</v>
+        <v>10.79</v>
       </c>
       <c r="D426">
         <f t="shared" si="8"/>
-        <v>8.6300000000000008</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>43865</v>
+        <v>43870</v>
       </c>
       <c r="B427">
-        <v>5.33</v>
-      </c>
-      <c r="C427">
-        <v>4.75</v>
+        <v>4.22</v>
       </c>
       <c r="D427">
         <f t="shared" si="8"/>
-        <v>10.08</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>43866</v>
+        <v>43871</v>
       </c>
       <c r="B428">
-        <v>3.6</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C428">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="D428">
         <f t="shared" si="8"/>
-        <v>4.83</v>
+        <v>6.3800000000000008</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>43867</v>
+        <v>43872</v>
       </c>
       <c r="B429">
-        <v>4.95</v>
+        <v>1.03</v>
       </c>
       <c r="C429">
-        <v>0.91</v>
+        <v>5</v>
       </c>
       <c r="D429">
         <f t="shared" si="8"/>
-        <v>5.86</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B430">
-        <v>3.57</v>
+        <v>43874</v>
       </c>
       <c r="C430">
-        <v>3.28</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D430">
         <f t="shared" si="8"/>
-        <v>6.85</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B431">
-        <v>10.79</v>
+        <v>43875</v>
+      </c>
+      <c r="C431">
+        <v>1.1599999999999999</v>
       </c>
       <c r="D431">
         <f t="shared" si="8"/>
-        <v>10.79</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>43870</v>
+        <v>43878</v>
       </c>
       <c r="B432">
-        <v>4.22</v>
+        <v>3.98</v>
       </c>
       <c r="D432">
         <f t="shared" si="8"/>
-        <v>4.22</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>43871</v>
+        <v>43879</v>
       </c>
       <c r="B433">
-        <v>4.7300000000000004</v>
+        <v>0.82</v>
       </c>
       <c r="C433">
-        <v>1.65</v>
+        <v>0.69</v>
       </c>
       <c r="D433">
         <f t="shared" si="8"/>
-        <v>6.3800000000000008</v>
+        <v>1.5099999999999998</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>43872</v>
+        <v>43880</v>
       </c>
       <c r="B434">
-        <v>1.03</v>
+        <v>0.76</v>
       </c>
       <c r="C434">
-        <v>5</v>
+        <v>1.31</v>
       </c>
       <c r="D434">
         <f t="shared" si="8"/>
-        <v>6.03</v>
+        <v>2.0700000000000003</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>43874</v>
+        <v>43881</v>
+      </c>
+      <c r="B435">
+        <v>2.6</v>
       </c>
       <c r="C435">
-        <v>4.0199999999999996</v>
+        <v>1.62</v>
       </c>
       <c r="D435">
         <f t="shared" si="8"/>
-        <v>4.0199999999999996</v>
+        <v>4.2200000000000006</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>43875</v>
+        <v>43882</v>
+      </c>
+      <c r="B436">
+        <v>0.57999999999999996</v>
       </c>
       <c r="C436">
-        <v>1.1599999999999999</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="D436">
         <f t="shared" si="8"/>
-        <v>1.1599999999999999</v>
+        <v>4.7700000000000005</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>43878</v>
+        <v>43884</v>
       </c>
       <c r="B437">
-        <v>3.98</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D437">
         <f t="shared" si="8"/>
-        <v>3.98</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>43879</v>
+        <v>43885</v>
       </c>
       <c r="B438">
-        <v>0.82</v>
+        <v>1.41</v>
       </c>
       <c r="C438">
-        <v>0.69</v>
+        <v>2.81</v>
       </c>
       <c r="D438">
         <f t="shared" si="8"/>
-        <v>1.5099999999999998</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>43880</v>
+        <v>43886</v>
       </c>
       <c r="B439">
-        <v>0.76</v>
-      </c>
-      <c r="C439">
-        <v>1.31</v>
+        <v>2.54</v>
       </c>
       <c r="D439">
         <f t="shared" si="8"/>
-        <v>2.0700000000000003</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>43881</v>
+        <v>43887</v>
       </c>
       <c r="B440">
-        <v>2.6</v>
-      </c>
-      <c r="C440">
-        <v>1.62</v>
+        <v>3.39</v>
       </c>
       <c r="D440">
         <f t="shared" si="8"/>
-        <v>4.2200000000000006</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>43882</v>
+        <v>43888</v>
       </c>
       <c r="B441">
-        <v>0.57999999999999996</v>
+        <v>2.61</v>
       </c>
       <c r="C441">
-        <v>4.1900000000000004</v>
+        <v>2.61</v>
       </c>
       <c r="D441">
-        <f t="shared" si="8"/>
-        <v>4.7700000000000005</v>
+        <f t="shared" ref="D441:D479" si="9" xml:space="preserve"> B441 + C441</f>
+        <v>5.22</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>43883</v>
+        <v>43889</v>
+      </c>
+      <c r="C442">
+        <v>3.59</v>
       </c>
       <c r="D442">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.59</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>43884</v>
+        <v>43891</v>
       </c>
       <c r="B443">
-        <v>2.2599999999999998</v>
+        <v>2.86</v>
       </c>
       <c r="D443">
-        <f t="shared" si="8"/>
-        <v>2.2599999999999998</v>
+        <f t="shared" si="9"/>
+        <v>2.86</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>43885</v>
+        <v>43892</v>
       </c>
       <c r="B444">
-        <v>1.41</v>
+        <v>4.21</v>
       </c>
       <c r="C444">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="D444">
-        <f t="shared" si="8"/>
-        <v>4.22</v>
+        <f t="shared" si="9"/>
+        <v>7.17</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>43886</v>
+        <v>43893</v>
       </c>
       <c r="B445">
-        <v>2.54</v>
+        <v>0.59</v>
+      </c>
+      <c r="C445">
+        <v>2.5</v>
       </c>
       <c r="D445">
-        <f t="shared" si="8"/>
-        <v>2.54</v>
+        <f t="shared" si="9"/>
+        <v>3.09</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B446">
-        <v>3.39</v>
+        <v>43894</v>
+      </c>
+      <c r="C446">
+        <v>0.34</v>
       </c>
       <c r="D446">
-        <f t="shared" si="8"/>
-        <v>3.39</v>
+        <f t="shared" si="9"/>
+        <v>0.34</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>43888</v>
+        <v>43895</v>
       </c>
       <c r="B447">
-        <v>2.61</v>
+        <v>1</v>
       </c>
       <c r="C447">
-        <v>2.61</v>
+        <v>1.65</v>
       </c>
       <c r="D447">
-        <f t="shared" ref="D447:D463" si="9" xml:space="preserve"> B447 + C447</f>
-        <v>5.22</v>
+        <f t="shared" si="9"/>
+        <v>2.65</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>43889</v>
+        <v>43896</v>
+      </c>
+      <c r="B448">
+        <v>4.18</v>
       </c>
       <c r="C448">
-        <v>3.59</v>
+        <v>1.48</v>
       </c>
       <c r="D448">
         <f t="shared" si="9"/>
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>43890</v>
+        <v>43898</v>
+      </c>
+      <c r="B449">
+        <v>7.32</v>
       </c>
       <c r="D449">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>43891</v>
+        <v>43899</v>
       </c>
       <c r="B450">
-        <v>2.86</v>
+        <v>12.5</v>
       </c>
       <c r="D450">
         <f t="shared" si="9"/>
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>43892</v>
+        <v>43900</v>
       </c>
       <c r="B451">
-        <v>4.21</v>
-      </c>
-      <c r="C451">
-        <v>2.96</v>
+        <v>7.9</v>
       </c>
       <c r="D451">
         <f t="shared" si="9"/>
-        <v>7.17</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>43893</v>
+        <v>43901</v>
       </c>
       <c r="B452">
-        <v>0.59</v>
-      </c>
-      <c r="C452">
-        <v>2.5</v>
+        <v>6.79</v>
       </c>
       <c r="D452">
         <f t="shared" si="9"/>
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>43894</v>
-      </c>
-      <c r="C453">
-        <v>0.34</v>
+        <v>43902</v>
+      </c>
+      <c r="B453">
+        <v>8.44</v>
       </c>
       <c r="D453">
         <f t="shared" si="9"/>
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>43895</v>
+        <v>43903</v>
       </c>
       <c r="B454">
-        <v>1</v>
-      </c>
-      <c r="C454">
-        <v>1.65</v>
+        <v>6.24</v>
       </c>
       <c r="D454">
         <f t="shared" si="9"/>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>43896</v>
+        <v>43904</v>
       </c>
       <c r="B455">
-        <v>4.18</v>
+        <v>6.65</v>
       </c>
       <c r="C455">
-        <v>1.48</v>
+        <v>0.35</v>
       </c>
       <c r="D455">
         <f t="shared" si="9"/>
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>43897</v>
+        <v>43905</v>
+      </c>
+      <c r="B456">
+        <v>4.66</v>
       </c>
       <c r="D456">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>43898</v>
+        <v>43906</v>
       </c>
       <c r="B457">
-        <v>7.32</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="D457">
         <f t="shared" si="9"/>
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>43899</v>
+        <v>43907</v>
       </c>
       <c r="B458">
-        <v>12.5</v>
+        <v>3.61</v>
       </c>
       <c r="D458">
         <f t="shared" si="9"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B459">
-        <v>7.9</v>
+        <v>43909</v>
+      </c>
+      <c r="C459">
+        <v>0.75</v>
       </c>
       <c r="D459">
         <f t="shared" si="9"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>43901</v>
+        <v>43910</v>
       </c>
       <c r="B460">
-        <v>6.79</v>
+        <v>1.46</v>
       </c>
       <c r="D460">
         <f t="shared" si="9"/>
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>43902</v>
+        <v>43911</v>
       </c>
       <c r="B461">
-        <v>8.44</v>
+        <v>5.08</v>
       </c>
       <c r="D461">
         <f t="shared" si="9"/>
-        <v>8.44</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>43903</v>
+        <v>43913</v>
       </c>
       <c r="B462">
-        <v>6.24</v>
+        <v>3.42</v>
+      </c>
+      <c r="C462">
+        <v>0.39</v>
       </c>
       <c r="D462">
         <f t="shared" si="9"/>
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>43904</v>
+        <v>43915</v>
       </c>
       <c r="B463">
-        <v>1.72</v>
-      </c>
-      <c r="C463">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="D463">
         <f t="shared" si="9"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F463" t="s">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B464">
+        <v>8.98</v>
+      </c>
+      <c r="D464">
+        <f t="shared" si="9"/>
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B465">
+        <v>8.08</v>
+      </c>
+      <c r="C465">
+        <v>0.94</v>
+      </c>
+      <c r="D465">
+        <f t="shared" si="9"/>
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B466">
+        <v>3.75</v>
+      </c>
+      <c r="C466">
+        <v>0.47</v>
+      </c>
+      <c r="D466">
+        <f t="shared" si="9"/>
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C467">
+        <v>1.33</v>
+      </c>
+      <c r="D467">
+        <f t="shared" si="9"/>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C468">
+        <v>2.17</v>
+      </c>
+      <c r="D468">
+        <f t="shared" si="9"/>
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C469">
+        <v>6.01</v>
+      </c>
+      <c r="D469">
+        <f t="shared" si="9"/>
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B470">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D470">
+        <f t="shared" si="9"/>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C471">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D471">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B472">
+        <v>1.35</v>
+      </c>
+      <c r="C472">
+        <v>5.14</v>
+      </c>
+      <c r="D472">
+        <f t="shared" si="9"/>
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C473">
+        <v>4.37</v>
+      </c>
+      <c r="D473">
+        <f t="shared" si="9"/>
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B474">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C474">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="9"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B475">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C475">
+        <v>0.88</v>
+      </c>
+      <c r="D475">
+        <f t="shared" si="9"/>
+        <v>5.1499999999999995</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>43931</v>
+      </c>
+      <c r="C476">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D476">
+        <f t="shared" si="9"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C477">
+        <v>2.36</v>
+      </c>
+      <c r="D477">
+        <f t="shared" si="9"/>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B478">
+        <v>0.89</v>
+      </c>
+      <c r="C478">
+        <v>4.24</v>
+      </c>
+      <c r="D478">
+        <f t="shared" si="9"/>
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B479">
+        <v>0.3</v>
+      </c>
+      <c r="C479">
+        <v>1.02</v>
+      </c>
+      <c r="D479">
+        <f t="shared" si="9"/>
+        <v>1.32</v>
+      </c>
+      <c r="F479" t="s">
         <v>4</v>
       </c>
-      <c r="G463">
+      <c r="G479">
         <f>SUM(B:B)</f>
-        <v>2451.8200000000011</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
-      <c r="F464" t="s">
-        <v>5</v>
-      </c>
-      <c r="G464">
-        <f>SUM(C:C)</f>
-        <v>431.14000000000004</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="1"/>
-      <c r="F465" t="s">
-        <v>6</v>
-      </c>
-      <c r="G465">
-        <f>SUM(G463:G464)</f>
-        <v>2882.9600000000009</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="1"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="1"/>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="1"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="1"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="1"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="1"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="1"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="1"/>
+        <v>2513.0900000000015</v>
+      </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F480" t="s">
+        <v>5</v>
+      </c>
+      <c r="G480">
+        <f>SUM(C:C)</f>
+        <v>475.04</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F481" t="s">
+        <v>6</v>
+      </c>
+      <c r="G481">
+        <f>SUM(G479:G480)</f>
+        <v>2988.1300000000015</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -10145,48 +10431,6 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timer.xlsx
+++ b/timer.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524A4EF-248F-413E-A8E2-7B18CCBE45C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3D6AE-39BC-45C4-8002-9B0BB50FCCFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="390" windowWidth="21600" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="0" windowWidth="20325" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时" sheetId="1" r:id="rId1"/>
@@ -4095,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I480" sqref="I480"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G2">
         <f>SUM(C:C)</f>
-        <v>475.04</v>
+        <v>665.05</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="G3">
         <f>SUM(G1:G2)</f>
-        <v>2988.1300000000015</v>
+        <v>3178.1400000000012</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9807,7 +9807,7 @@
         <v>2.61</v>
       </c>
       <c r="D441">
-        <f t="shared" ref="D441:D479" si="9" xml:space="preserve"> B441 + C441</f>
+        <f t="shared" ref="D441:D504" si="9" xml:space="preserve"> B441 + C441</f>
         <v>5.22</v>
       </c>
     </row>
@@ -10314,123 +10314,1137 @@
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="1"/>
+      <c r="A480" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C480">
+        <v>1.7</v>
+      </c>
+      <c r="D480">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
       <c r="F480" t="s">
         <v>5</v>
       </c>
       <c r="G480">
         <f>SUM(C:C)</f>
-        <v>475.04</v>
+        <v>665.05</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="1"/>
+      <c r="A481" s="1">
+        <v>43936</v>
+      </c>
+      <c r="D481">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="F481" t="s">
         <v>6</v>
       </c>
       <c r="G481">
         <f>SUM(G479:G480)</f>
-        <v>2988.1300000000015</v>
+        <v>3178.1400000000012</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="1"/>
+      <c r="A482" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C482">
+        <v>7.29</v>
+      </c>
+      <c r="D482">
+        <f t="shared" si="9"/>
+        <v>7.29</v>
+      </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
+      <c r="A483" s="1">
+        <v>43938</v>
+      </c>
+      <c r="D483">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" s="1"/>
+      <c r="A484" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C484">
+        <v>3.2</v>
+      </c>
+      <c r="D484">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="1"/>
+      <c r="A485" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C485">
+        <v>3.64</v>
+      </c>
+      <c r="D485">
+        <f t="shared" si="9"/>
+        <v>3.64</v>
+      </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
+      <c r="A486" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C486">
+        <v>5.07</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="9"/>
+        <v>5.07</v>
+      </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="1"/>
+      <c r="A487" s="1">
+        <v>43942</v>
+      </c>
+      <c r="C487">
+        <v>8.08</v>
+      </c>
+      <c r="D487">
+        <f t="shared" si="9"/>
+        <v>8.08</v>
+      </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="1"/>
+      <c r="A488" s="1">
+        <v>43943</v>
+      </c>
+      <c r="C488">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D488">
+        <f t="shared" si="9"/>
+        <v>5.0199999999999996</v>
+      </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="1"/>
+      <c r="A489" s="1">
+        <v>43944</v>
+      </c>
+      <c r="C489">
+        <v>7.46</v>
+      </c>
+      <c r="D489">
+        <f t="shared" si="9"/>
+        <v>7.46</v>
+      </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" s="1"/>
+      <c r="A490" s="1">
+        <v>43945</v>
+      </c>
+      <c r="C490">
+        <v>5.07</v>
+      </c>
+      <c r="D490">
+        <f t="shared" si="9"/>
+        <v>5.07</v>
+      </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" s="1"/>
+      <c r="A491" s="1">
+        <v>43946</v>
+      </c>
+      <c r="C491">
+        <v>1.44</v>
+      </c>
+      <c r="D491">
+        <f t="shared" si="9"/>
+        <v>1.44</v>
+      </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="1"/>
+      <c r="A492" s="1">
+        <v>43947</v>
+      </c>
+      <c r="C492">
+        <v>6.3</v>
+      </c>
+      <c r="D492">
+        <f t="shared" si="9"/>
+        <v>6.3</v>
+      </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
+      <c r="A493" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C493">
+        <v>2.15</v>
+      </c>
+      <c r="D493">
+        <f t="shared" si="9"/>
+        <v>2.15</v>
+      </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C494">
+        <v>8.67</v>
+      </c>
+      <c r="D494">
+        <f t="shared" si="9"/>
+        <v>8.67</v>
+      </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="1"/>
+      <c r="A495" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C495">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D495">
+        <f t="shared" si="9"/>
+        <v>2.2400000000000002</v>
+      </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="1"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="1"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="1"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="1"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="1"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1"/>
+      <c r="A496" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C496">
+        <v>6.8</v>
+      </c>
+      <c r="D496">
+        <f t="shared" si="9"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C497">
+        <v>8.85</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="9"/>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C498">
+        <v>5.44</v>
+      </c>
+      <c r="D498">
+        <f t="shared" si="9"/>
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>43954</v>
+      </c>
+      <c r="C499">
+        <v>3.48</v>
+      </c>
+      <c r="D499">
+        <f t="shared" si="9"/>
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C500">
+        <v>2.91</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="9"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>43956</v>
+      </c>
+      <c r="C501">
+        <v>2.5</v>
+      </c>
+      <c r="D501">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>43957</v>
+      </c>
+      <c r="C502">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D502">
+        <f t="shared" si="9"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>43958</v>
+      </c>
+      <c r="C503">
+        <v>5.24</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="9"/>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C504">
+        <v>3.77</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="9"/>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>43960</v>
+      </c>
+      <c r="C505">
+        <v>3.55</v>
+      </c>
+      <c r="D505">
+        <f t="shared" ref="D505:D520" si="10" xml:space="preserve"> B505 + C505</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>43961</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>43962</v>
+      </c>
+      <c r="C507">
+        <v>3.37</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="10"/>
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C508">
+        <v>0.43</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="10"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>43964</v>
+      </c>
+      <c r="C509">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="10"/>
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C510">
+        <v>7.1</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="10"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>43966</v>
+      </c>
+      <c r="C511">
+        <v>5.56</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="10"/>
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C512">
+        <v>5.73</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="10"/>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C513">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="10"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C514">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="10"/>
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C515">
+        <v>9.64</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="10"/>
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>43971</v>
+      </c>
+      <c r="C516">
+        <v>3.69</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="10"/>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C517">
+        <v>6.27</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="10"/>
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C518">
+        <v>4.76</v>
+      </c>
+      <c r="D518">
+        <f t="shared" si="10"/>
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C519">
+        <v>11.21</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="10"/>
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C520">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D520">
+        <f t="shared" si="10"/>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="1"/>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="1"/>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="1"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="1"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="1"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="1"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="1"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="1"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="1"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="1"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="1"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="1"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="1"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="1"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="1"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="1"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="1"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="1"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="1"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="1"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="1"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="1"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="1"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="1"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="1"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="1"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="1"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="1"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="1"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="1"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="1"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="1"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="1"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="1"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="1"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="1"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="1"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="1"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="1"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="1"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="1"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="1"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="1"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="1"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="1"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="1"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="1"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="1"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="1"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="1"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="1"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="1"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="1"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="1"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="1"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="1"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="1"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="1"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="1"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="1"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="1"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="1"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="1"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="1"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="1"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="1"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="1"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="1"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="1"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="1"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="1"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="1"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="1"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="1"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="1"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="1"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="1"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="1"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="1"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="1"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="1"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="1"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="1"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="1"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="1"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="1"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="1"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="1"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="1"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="1"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="1"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="1"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="1"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="1"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="1"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="1"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="1"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="1"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="1"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="1"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="1"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="1"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="1"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="1"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="1"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="1"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="1"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="1"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="1"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="1"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="1"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="1"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="1"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="1"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="1"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="1"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="1"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="1"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="1"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="1"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="1"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="1"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="1"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="1"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="1"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="1"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="1"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="1"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="1"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="1"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="1"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="1"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="1"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="1"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="1"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="1"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="1"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="1"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="1"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="1"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="1"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="1"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="1"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="1"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="1"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="1"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="1"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="1"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="1"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="1"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="1"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="1"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="1"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="1"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="1"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="1"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="1"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="1"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="1"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="1"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="1"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="1"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="1"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="1"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="1"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="1"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="1"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="1"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="1"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="1"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="1"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="1"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="1"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="1"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="1"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="1"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="1"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="1"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="1"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="1"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
